--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1450381.548198044</v>
+        <v>1442157.319337142</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8078410.590648619</v>
+        <v>8237317.714532983</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928039.641030761</v>
+        <v>1928039.641030762</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10407336.15125946</v>
+        <v>10395112.52634528</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.11865576720666</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>345.4090100635887</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>16.88986550434922</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>110.5750800668504</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>413.2917745500548</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>132.94823985915</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>163.1952510194794</v>
       </c>
       <c r="T5" t="n">
-        <v>105.083968396267</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1847758706301</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.2675571201491</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>101.8439353995598</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>52.35151733372528</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>33.35392902290849</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>151.6976852162689</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.8278546616042</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8705952360366</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>29.58433304891922</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>10.62776057957427</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>136.7339991183153</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>208.2963483482898</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>224.0913811060693</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>239.2852486385454</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.769908071585021</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>35.22173487904352</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>31.44505697773414</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>156.0525400950535</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>67.71780815688854</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>204.00052159079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958593</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>227.7359967734924</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>201.6086852141628</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492339</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>30.96411613815183</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229277</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>71.6703719699202</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479897</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>96.50675189249485</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>106.5867442799585</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175846804</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>106.1291724544568</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>122.4179473152584</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>13.42874471570696</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>10.96344850598523</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>52.23490948285903</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>136.0325688578936</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3281,10 +3281,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292812</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>123.6389601548576</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>71.98153210090187</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881778</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>56.00855464855808</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>19.89928445781392</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159611</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>173.5578851713661</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>136.9968647819694</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>121.7653892614121</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3977,10 +3977,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3992,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.0916244150701</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>105.4063450911296</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>159.7077349259108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,7 +4141,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>200.1973972070942</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
         <v>1363.553390680693</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.521729839487</v>
+        <v>2070.717079250664</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>711.0685140000211</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>711.0685140000211</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U4" t="n">
-        <v>711.0685140000211</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1128.378476989826</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1128.378476989826</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1128.378476989826</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1016.6864769223</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>605.7005721326926</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>188.2341331932433</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>188.2341331932433</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>410.201997697919</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>904.4494370133583</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1471.001490010986</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>2032.088949992238</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2516.720290054723</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2532.305403119758</v>
       </c>
       <c r="T5" t="n">
-        <v>2535.974978926224</v>
+        <v>2532.305403119758</v>
       </c>
       <c r="U5" t="n">
-        <v>2535.974978926224</v>
+        <v>2278.583407290839</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.974978926224</v>
+        <v>2278.583407290839</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.974978926224</v>
+        <v>2278.583407290839</v>
       </c>
       <c r="X5" t="n">
-        <v>2535.974978926224</v>
+        <v>1905.117649029759</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>1514.978317053948</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>976.4994133912468</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>802.0463841101198</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>653.1119744488685</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>493.874519443413</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>347.3399614702979</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>209.6959643792383</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>106.8233023594809</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>119.2257536336259</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>416.5898255175317</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598707</v>
+        <v>877.8369134580084</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1468.069731105209</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>2089.631268530426</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2591.822965120534</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2662.594867005198</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2662.594867005198</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2628.904029608321</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2475.674044541383</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2277.868130741783</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2049.716014341746</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1814.563906110003</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1560.326549381801</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1352.475049176269</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1144.714750411315</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>135.6498328580447</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>295.7329061049992</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>474.9071846353186</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>655.2557157182439</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>805.8204789144571</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>911.1339624665395</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>900.3988507699999</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>762.283700145439</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245974</v>
+        <v>551.8833482784796</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245974</v>
+        <v>325.5284178683086</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791653</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791653</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791653</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>83.82614651624246</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>83.82614651624246</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2063.986705405919</v>
+        <v>1621.605546178111</v>
       </c>
       <c r="C8" t="n">
-        <v>2063.986705405919</v>
+        <v>1621.605546178111</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>1621.605546178111</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>1235.817293579867</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>824.8313887902593</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>407.7436070266868</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>89.52049179919629</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906663</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.2439619368655</v>
+        <v>912.0443006336772</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1543.762111616989</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980024</v>
+        <v>2171.069779676835</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996628</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2450.586545470041</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2450.586545470041</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="W8" t="n">
-        <v>2450.586545470041</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="X8" t="n">
-        <v>2450.586545470041</v>
+        <v>1621.605546178111</v>
       </c>
       <c r="Y8" t="n">
-        <v>2450.586545470041</v>
+        <v>1621.605546178111</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004798</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.9342089920628</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="C10" t="n">
-        <v>221.9342089920628</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="E10" t="n">
         <v>71.81756957972706</v>
@@ -4960,7 +4960,7 @@
         <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4990,22 +4990,22 @@
         <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>765.7708736202699</v>
+        <v>697.7705053114768</v>
       </c>
       <c r="U10" t="n">
-        <v>476.6186971979497</v>
+        <v>697.7705053114768</v>
       </c>
       <c r="V10" t="n">
-        <v>221.9342089920628</v>
+        <v>697.7705053114768</v>
       </c>
       <c r="W10" t="n">
-        <v>221.9342089920628</v>
+        <v>697.7705053114768</v>
       </c>
       <c r="X10" t="n">
-        <v>221.9342089920628</v>
+        <v>469.7809544134594</v>
       </c>
       <c r="Y10" t="n">
-        <v>221.9342089920628</v>
+        <v>401.3791279923599</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2182.266054653543</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267228</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923657</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653543</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.266054653543</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2182.266054653543</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,19 +5124,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518377</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395019</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571088</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591984</v>
       </c>
       <c r="G13" t="n">
         <v>310.0549803959803</v>
@@ -5194,7 +5194,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5236,13 +5236,13 @@
         <v>1927.294548088492</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1409.887827153514</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009984</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1491.569348694471</v>
+        <v>2209.232076102163</v>
       </c>
       <c r="C14" t="n">
-        <v>1122.60683175406</v>
+        <v>1840.269559161752</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.60683175406</v>
+        <v>1482.003860555001</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1096.215607956757</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>685.2297031671494</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218339</v>
+        <v>270.1572530121459</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218339</v>
@@ -5276,10 +5276,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810551</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5291,7 +5291,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296684</v>
@@ -5300,28 +5300,28 @@
         <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V14" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W14" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X14" t="n">
-        <v>2268.308520734405</v>
+        <v>2599.371408077975</v>
       </c>
       <c r="Y14" t="n">
-        <v>1878.169188758593</v>
+        <v>2209.232076102163</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218339</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218339</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218339</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218339</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218339</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>195.1146786018702</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218339</v>
@@ -5479,7 +5479,7 @@
         <v>362.8175152271513</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836212</v>
+        <v>362.8175152271513</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,43 +5516,43 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>753.1470291944256</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1617.66584484778</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2151.197749519704</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5604,16 +5604,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3531.125154183955</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>3362.188971256048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>3212.072331843713</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>3064.159238261319</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>2917.269290763413</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>4778.051722419721</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>4705.65740729859</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>4450.972919092703</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W19" t="n">
-        <v>4161.555749055742</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X19" t="n">
-        <v>3933.566198157725</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y19" t="n">
-        <v>3712.773619014195</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2628.734306600802</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5780,16 +5780,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>909.27315417834</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C22" t="n">
-        <v>909.27315417834</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D22" t="n">
         <v>801.6097761177758</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V22" t="n">
-        <v>909.27315417834</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="W22" t="n">
-        <v>909.27315417834</v>
+        <v>1666.926296067742</v>
       </c>
       <c r="X22" t="n">
-        <v>909.27315417834</v>
+        <v>1438.936745169725</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.27315417834</v>
+        <v>1218.144166026195</v>
       </c>
     </row>
     <row r="23">
@@ -6002,10 +6002,10 @@
         <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3944.053400686432</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4338.82776704361</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6081,7 +6081,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.6138567886371</v>
+        <v>3092.649987000256</v>
       </c>
       <c r="C25" t="n">
-        <v>245.6776738607302</v>
+        <v>2923.713804072349</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="T25" t="n">
-        <v>1657.456397634098</v>
+        <v>4556.285106989247</v>
       </c>
       <c r="U25" t="n">
-        <v>1368.353530759742</v>
+        <v>4267.18224011489</v>
       </c>
       <c r="V25" t="n">
-        <v>1113.669042553855</v>
+        <v>4012.497751909003</v>
       </c>
       <c r="W25" t="n">
-        <v>824.2518725168941</v>
+        <v>3723.080581872043</v>
       </c>
       <c r="X25" t="n">
-        <v>596.2623216188767</v>
+        <v>3495.091030974026</v>
       </c>
       <c r="Y25" t="n">
-        <v>596.2623216188767</v>
+        <v>3274.298451830496</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364129</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3603.519469305087</v>
+        <v>3942.370854773037</v>
       </c>
       <c r="C28" t="n">
-        <v>3434.58328637718</v>
+        <v>3773.43467184513</v>
       </c>
       <c r="D28" t="n">
-        <v>3284.466646964844</v>
+        <v>3623.318032432794</v>
       </c>
       <c r="E28" t="n">
-        <v>3284.466646964844</v>
+        <v>3475.404938850401</v>
       </c>
       <c r="F28" t="n">
-        <v>3284.466646964844</v>
+        <v>3328.514991352491</v>
       </c>
       <c r="G28" t="n">
         <v>3160.812154727209</v>
@@ -6406,28 +6406,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.051722419721</v>
+        <v>4764.487333817997</v>
       </c>
       <c r="S28" t="n">
-        <v>4778.051722419721</v>
+        <v>4572.801449644823</v>
       </c>
       <c r="T28" t="n">
-        <v>4778.051722419721</v>
+        <v>4572.801449644823</v>
       </c>
       <c r="U28" t="n">
-        <v>4778.051722419721</v>
+        <v>4572.801449644823</v>
       </c>
       <c r="V28" t="n">
-        <v>4523.367234213834</v>
+        <v>4572.801449644823</v>
       </c>
       <c r="W28" t="n">
-        <v>4233.950064176874</v>
+        <v>4572.801449644823</v>
       </c>
       <c r="X28" t="n">
-        <v>4005.960513278857</v>
+        <v>4344.811898746806</v>
       </c>
       <c r="Y28" t="n">
-        <v>3785.167934135327</v>
+        <v>4124.019319603276</v>
       </c>
     </row>
     <row r="29">
@@ -6473,7 +6473,7 @@
         <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750059</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102191</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324507</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>736.381378691721</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>567.4451957638141</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>567.4451957638141</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6646,25 +6646,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104703</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1956.343466104703</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>1751.093193329805</v>
+        <v>964.3709295897384</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>736.381378691721</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>736.381378691721</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001586</v>
@@ -6695,40 +6695,40 @@
         <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>1999.417367126748</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6774,7 +6774,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390117</v>
@@ -6789,16 +6789,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>391.8664332433621</v>
+        <v>3086.20547369132</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8664332433621</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="D34" t="n">
-        <v>391.8664332433621</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="E34" t="n">
-        <v>391.8664332433621</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="F34" t="n">
-        <v>391.8664332433621</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953299</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>4550.814629967255</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258583</v>
+        <v>4329.048014536781</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>4039.945147662424</v>
       </c>
       <c r="V34" t="n">
-        <v>909.27315417834</v>
+        <v>3785.260659456538</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413794</v>
+        <v>3495.843489419577</v>
       </c>
       <c r="X34" t="n">
-        <v>391.8664332433621</v>
+        <v>3267.853938521559</v>
       </c>
       <c r="Y34" t="n">
-        <v>391.8664332433621</v>
+        <v>3267.853938521559</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690178</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544772</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551642</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001607</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089279</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
@@ -6941,46 +6941,46 @@
         <v>939.1634975427193</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.866738172573</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867998</v>
+        <v>2055.398642844497</v>
       </c>
       <c r="N35" t="n">
-        <v>2883.99303492678</v>
+        <v>2602.177459903279</v>
       </c>
       <c r="O35" t="n">
-        <v>3763.957685256235</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604877</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261306</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991192</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730112</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.8161967543</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.8112129900683</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8112129900683</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>631.6945735777325</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>631.6945735777325</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7111,34 +7111,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952196</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104703</v>
+        <v>1667.240599230354</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.658977898816</v>
+        <v>1412.556111024467</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.241807861855</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.252256963838</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.459677820308</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="38">
@@ -7157,46 +7157,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946816</v>
@@ -7205,13 +7205,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7248,28 +7248,28 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3121.756681970612</v>
+        <v>1120.662598458019</v>
       </c>
       <c r="C40" t="n">
-        <v>3065.182384345806</v>
+        <v>951.7264155301117</v>
       </c>
       <c r="D40" t="n">
-        <v>3065.182384345806</v>
+        <v>801.6097761177759</v>
       </c>
       <c r="E40" t="n">
-        <v>2917.269290763413</v>
+        <v>653.6966825353828</v>
       </c>
       <c r="F40" t="n">
-        <v>2917.269290763413</v>
+        <v>506.8067350374724</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763413</v>
+        <v>339.1038984121914</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763413</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>4586.365838246547</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T40" t="n">
-        <v>4364.599222816073</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U40" t="n">
-        <v>4075.496355941717</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V40" t="n">
-        <v>3820.81186773583</v>
+        <v>1611.828520656344</v>
       </c>
       <c r="W40" t="n">
-        <v>3531.394697698869</v>
+        <v>1322.411350619383</v>
       </c>
       <c r="X40" t="n">
-        <v>3303.405146800852</v>
+        <v>1322.411350619383</v>
       </c>
       <c r="Y40" t="n">
-        <v>3303.405146800852</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.321240915451</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3150.294826486578</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>3150.294826486578</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W41" t="n">
-        <v>2797.526171216464</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X41" t="n">
-        <v>2424.060412955384</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y41" t="n">
-        <v>2033.921080979572</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7494,19 +7494,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>339.6240985328142</v>
+        <v>373.8289708570292</v>
       </c>
       <c r="C43" t="n">
-        <v>339.6240985328142</v>
+        <v>204.8927879291222</v>
       </c>
       <c r="D43" t="n">
-        <v>189.5074591204784</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>189.5074591204784</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>189.5074591204784</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610488</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046014</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W43" t="n">
-        <v>970.0546934046014</v>
+        <v>1004.259565728816</v>
       </c>
       <c r="X43" t="n">
-        <v>742.065142506584</v>
+        <v>776.270014830799</v>
       </c>
       <c r="Y43" t="n">
-        <v>521.2725633630539</v>
+        <v>555.4774356872689</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1278.358723975039</v>
+        <v>2255.174438931363</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1886.211921990951</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1527.9462233842</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>1142.157970785956</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>731.1720659963487</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>316.0996158413452</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7676,22 +7676,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W44" t="n">
-        <v>2428.563654276052</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X44" t="n">
-        <v>2055.097896014972</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.958564039161</v>
+        <v>2641.774278995485</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>920.7416649986293</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.613680441807</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C46" t="n">
-        <v>922.6774975139006</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D46" t="n">
-        <v>772.5608581015648</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E46" t="n">
         <v>624.6477645191717</v>
@@ -7801,7 +7801,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7810,46 +7810,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T46" t="n">
-        <v>1735.608663915319</v>
+        <v>1635.244497707541</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.608663915319</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.924175709432</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="W46" t="n">
-        <v>1480.924175709432</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="X46" t="n">
-        <v>1252.934624811414</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y46" t="n">
-        <v>1252.934624811414</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>10.36793656920736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8231,10 +8231,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>124.3053217775701</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>5.144312979140892</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>91.12519196309744</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>2.636418413812095</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780422</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>127.9451019578563</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8465,13 +8465,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>168.8820637317194</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>136.2499899971307</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>401.5033668799372</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>67.53663776704411</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>315.1679217109336</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,10 +10121,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>189.7998007892655</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>400.5976869789381</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>132.999017557015</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>315.1679217109336</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476871</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>161.2723701802176</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83.32522828944229</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>154.1943732987694</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>92.99907917315764</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -23552,7 +23552,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270139</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>113.790898776169</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>214.5414662356927</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>91.26811680410505</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>83.32522828944245</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02872873825388</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>142.2354048423655</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,10 +24412,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>113.4197768217124</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>43.60786094376986</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>75.50340795434039</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24658,10 +24658,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>135.4705141405839</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944232</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>113.7908987761692</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>53.73645647354832</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>21.78208786807366</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>214.5414662356891</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>111.2382664500697</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>198.6853688942809</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>77.43728678753592</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>11.61860823624295</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>44.26041899761614</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>47.51613997225039</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>243.8346236262834</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20.12424525602651</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>19.35155206907498</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>994535.2673797334</v>
+        <v>981822.6974689841</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>921202.9459189282</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189279</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.9459189282</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921202.9459189279</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772123.0244046703</v>
+        <v>772123.0244046702</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772123.0244046702</v>
+        <v>772123.0244046705</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136508</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="F2" t="n">
         <v>426246.3737136506</v>
       </c>
       <c r="G2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="H2" t="n">
         <v>496352.2336087288</v>
-      </c>
-      <c r="H2" t="n">
-        <v>496352.2336087289</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087289</v>
@@ -26338,22 +26338,22 @@
         <v>496352.2336087288</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.2336087291</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="M2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="N2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087291</v>
       </c>
       <c r="O2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136508</v>
       </c>
       <c r="P2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136506</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>111533.6047361813</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481114</v>
+        <v>79859.80284683706</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.2295734509</v>
+        <v>445640.229573451</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.408680915</v>
+        <v>99523.40868091503</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254663</v>
+        <v>39153.48277254678</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404878</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404877</v>
+        <v>190813.7345690821</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136403</v>
+        <v>5500.795347005322</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136412</v>
+        <v>5500.795347005322</v>
       </c>
       <c r="G4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219672</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219671</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="M4" t="n">
-        <v>27740.54210219671</v>
+        <v>28561.8393528958</v>
       </c>
       <c r="N4" t="n">
-        <v>27740.5421021967</v>
+        <v>28561.8393528958</v>
       </c>
       <c r="O4" t="n">
-        <v>5356.47710813642</v>
+        <v>5500.795347005322</v>
       </c>
       <c r="P4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>85529.21560236585</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.34056139327</v>
@@ -26500,16 +26500,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367502.405353265</v>
+        <v>-369598.2665758104</v>
       </c>
       <c r="C6" t="n">
-        <v>222465.47386128</v>
+        <v>125274.551257548</v>
       </c>
       <c r="D6" t="n">
-        <v>65999.43150503619</v>
+        <v>169462.2822462137</v>
       </c>
       <c r="E6" t="n">
-        <v>-99056.67352932974</v>
+        <v>-99200.99176819886</v>
       </c>
       <c r="F6" t="n">
-        <v>346583.5560441209</v>
+        <v>346439.2378052521</v>
       </c>
       <c r="G6" t="n">
-        <v>272704.7645719034</v>
+        <v>271883.4673212044</v>
       </c>
       <c r="H6" t="n">
-        <v>372228.1732528185</v>
+        <v>371406.8760021194</v>
       </c>
       <c r="I6" t="n">
-        <v>372228.1732528185</v>
+        <v>371406.8760021195</v>
       </c>
       <c r="J6" t="n">
-        <v>195804.9540602255</v>
+        <v>194983.6568095264</v>
       </c>
       <c r="K6" t="n">
-        <v>372228.1732528186</v>
+        <v>371406.8760021194</v>
       </c>
       <c r="L6" t="n">
-        <v>372228.1732528188</v>
+        <v>371406.8760021193</v>
       </c>
       <c r="M6" t="n">
-        <v>333074.6904802718</v>
+        <v>332253.3932295727</v>
       </c>
       <c r="N6" t="n">
-        <v>372228.1732528185</v>
+        <v>371406.8760021197</v>
       </c>
       <c r="O6" t="n">
-        <v>346583.556044121</v>
+        <v>346439.2378052522</v>
       </c>
       <c r="P6" t="n">
-        <v>346583.556044121</v>
+        <v>346439.2378052521</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>500.2270375637094</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26960,10 +26960,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>122.4833733466227</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209782</v>
+        <v>93.24906277435569</v>
       </c>
       <c r="E3" t="n">
         <v>496.300600255233</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1141826477367</v>
+        <v>157.114182647737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.1114752026378</v>
+        <v>363.111475202638</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477369</v>
+        <v>157.1141826477375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477367</v>
+        <v>157.114182647737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026378</v>
+        <v>363.111475202638</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298.6151858962739</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>19.8638817074189</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>195.2556734456697</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>271.3552900054113</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>318.8800276496391</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.54796558592813</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>111.3643519613908</v>
+        <v>214.2928591844926</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>167.0889306021963</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>154.2071390199427</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>128.3234086934755</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>46.98457805851294</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>223.9397473174521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.27430601484677</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>219.7097292445665</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>67.3203646257052</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>150.8668451952063</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.010962965080237</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>20.59477446612798</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>77.52764971125592</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>170.6779679574789</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>255.8020302693254</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>317.3450381118998</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>353.1075007421454</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>358.8211492666797</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>338.8246362826631</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>289.1789880822446</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>217.1613768953086</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>126.3211523552216</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>45.82481856676595</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>8.802990379638743</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1608770372064189</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>1.075960043061564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>10.39150883693668</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>37.0451155176898</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>101.6546284543384</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>173.7439513394631</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>233.62018391124</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>272.6237354722215</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>279.8392745329284</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>255.9982651577221</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>205.4611769947998</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>137.3453556722094</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>66.80390512973464</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>19.98548588756894</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>4.336874033217441</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.07078684493826079</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.9020487562624266</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>8.020033487496853</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>27.1270662337828</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>63.77484706775356</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>104.8016645912165</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>134.1100487265066</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>141.4002427657547</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>138.0380610378676</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>127.5004914760747</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>109.0986968483211</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>75.53428267212011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>40.55939225885419</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>15.72024968868246</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>3.854208322212185</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.04920265943249606</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
         <v>593.9283018233474</v>
@@ -31859,7 +31859,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34436,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34475,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34524,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34542,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>359.8575917955096</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>499.239837692363</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>572.2748010077052</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>566.7550100820729</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>489.5266061237216</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>182.2513141045452</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>65.94219375076909</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047519</v>
+        <v>300.3677493776827</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>465.906149434825</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>596.1947653002031</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>627.8399367931486</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>507.2643399900072</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>71.48676958046957</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>82.5321727653336</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>161.7000739868228</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>180.9841197275953</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>182.1702334170962</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>152.0856193901143</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>106.3772561132146</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807258</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>268.6811179591222</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
@@ -35185,13 +35185,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>350.1925044939465</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
         <v>451.7942679013291</v>
@@ -35507,7 +35507,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35726,7 +35726,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35884,19 +35884,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>473.4412765525311</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36130,10 +36130,10 @@
         <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>953.8052022928484</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>575.5896386552631</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36370,13 +36370,13 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>384.0473624437464</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36595,22 +36595,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>713.9299079303053</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
@@ -36841,10 +36841,10 @@
         <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>742.1016362021768</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>939.5188028091646</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37309,7 +37309,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>588.5891319493469</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37321,13 +37321,13 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>713.9299079303053</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37479,7 +37479,7 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451175</v>
       </c>
       <c r="Q37" t="n">
         <v>78.39423853789363</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359061</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127274</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1442157.319337142</v>
+        <v>1530281.804506152</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8237317.714532983</v>
+        <v>6970360.774383797</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1928039.641030762</v>
+        <v>1116356.600945275</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10395112.52634528</v>
+        <v>10743239.97226971</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>345.4090100635887</v>
+        <v>206.0542719083141</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.8247259764142</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>164.8789012911986</v>
       </c>
       <c r="E5" t="n">
-        <v>110.5750800668504</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2917745500548</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>132.94823985915</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>163.1952510194794</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1847758706301</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2675571201491</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>101.8439353995598</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>52.35151733372528</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>33.35392902290849</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
-        <v>151.6976852162689</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>195.8278546616042</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8705952360366</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>29.58433304891922</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.62776057957427</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>136.7339991183153</v>
+        <v>139.5927378781521</v>
       </c>
       <c r="S7" t="n">
-        <v>208.2963483482898</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0913811060693</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>239.2852486385454</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>35.22173487904352</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>138.0733949797866</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.71780815688854</v>
+        <v>155.4526127311942</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>229.7965692041371</v>
+        <v>63.03795412516809</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>82.70057996958593</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>201.6086852141628</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>174.6402025854863</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>99.20555210933544</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>30.96411613815183</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>72.73795767383874</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.3165365479897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.50675189249485</v>
+        <v>74.75769145492261</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>6.380068175846804</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>68.85005436466928</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2731,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>13.42874471570696</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>10.96344850598523</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,10 +3006,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492261</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>136.0325688578936</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292812</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>71.98153210090187</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881778</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396202</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>81.1740025376955</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.89928445781392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>120.6088074159611</v>
+        <v>334.5667562800385</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>136.9968647819694</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>67.33742371513254</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>247.0916244150701</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>174.6402025854863</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>45.28085849688281</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>200.1973972070942</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2070.717079250664</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
         <v>1363.553390680693</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>2070.717079250664</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>2070.717079250664</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1128.378476989826</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C5" t="n">
-        <v>1128.378476989826</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="D5" t="n">
-        <v>1128.378476989826</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>1016.6864769223</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>605.7005721326926</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>188.2341331932433</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>188.2341331932433</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>53.94298182036445</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>410.201997697919</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>904.4494370133583</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1471.001490010986</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>2032.088949992238</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2516.720290054723</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2697.149091018222</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2532.305403119758</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2532.305403119758</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2278.583407290839</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2278.583407290839</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2278.583407290839</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1905.117649029759</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.978317053948</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976.4994133912468</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>802.0463841101198</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>653.1119744488685</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>493.874519443413</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>347.3399614702979</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>209.6959643792383</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>106.8233023594809</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2257536336259</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>416.5898255175317</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>877.8369134580084</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1468.069731105209</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>2089.631268530426</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2591.822965120534</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2662.594867005198</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2662.594867005198</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2628.904029608321</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2475.674044541383</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2277.868130741783</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2049.716014341746</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1814.563906110003</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1560.326549381801</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1352.475049176269</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1144.714750411315</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.82614651624246</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>83.82614651624246</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>83.82614651624246</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>83.82614651624246</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>83.82614651624246</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>83.82614651624246</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>83.82614651624246</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>83.82614651624246</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>135.6498328580447</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>295.7329061049992</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>474.9071846353186</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>655.2557157182439</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>805.8204789144571</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>911.1339624665395</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>900.3988507699999</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>762.283700145439</v>
+        <v>557.7092995265691</v>
       </c>
       <c r="S7" t="n">
-        <v>551.8833482784796</v>
+        <v>557.7092995265691</v>
       </c>
       <c r="T7" t="n">
-        <v>325.5284178683086</v>
+        <v>557.7092995265691</v>
       </c>
       <c r="U7" t="n">
-        <v>83.82614651624246</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="V7" t="n">
-        <v>83.82614651624246</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="W7" t="n">
-        <v>83.82614651624246</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="X7" t="n">
-        <v>83.82614651624246</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y7" t="n">
-        <v>83.82614651624246</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.605546178111</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.605546178111</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1621.605546178111</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1235.817293579867</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>824.8313887902593</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>407.7436070266868</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>89.52049179919629</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>912.0443006336772</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1543.762111616989</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>2171.069779676835</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.071304439191</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1621.605546178111</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y8" t="n">
-        <v>1621.605546178111</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988471</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>219.7306631621202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>219.7306631621202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>219.7306631621202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167927</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>545.0935070360306</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>697.7705053114768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>697.7705053114768</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>697.7705053114768</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>697.7705053114768</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>469.7809544134594</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.3791279923599</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1822.632236038043</v>
+        <v>1972.793246711603</v>
       </c>
       <c r="C11" t="n">
-        <v>1453.669719097631</v>
+        <v>1603.830729771191</v>
       </c>
       <c r="D11" t="n">
-        <v>1095.404020490881</v>
+        <v>1245.565031164441</v>
       </c>
       <c r="E11" t="n">
-        <v>709.6157678926365</v>
+        <v>859.7767785661968</v>
       </c>
       <c r="F11" t="n">
-        <v>298.629863103029</v>
+        <v>448.7908737765892</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>385.1161726400558</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>443.8173522282015</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>777.6367259180479</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1497.435807644115</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2030.96771231604</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2577.746529374822</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3080.719000254159</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3794.074087701105</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4252.552290210093</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4266.337943968243</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4060.360196352465</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3806.829719626302</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3475.766832282731</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339056</v>
+        <v>3122.998177012616</v>
       </c>
       <c r="X11" t="n">
-        <v>2599.371408077976</v>
+        <v>2749.532418751537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.232076102165</v>
+        <v>2359.393086775725</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>962.5643102977483</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>788.1112810166213</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>639.1768713553702</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>479.9394163499146</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>333.4048583767997</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>197.041758209418</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>106.539863847285</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>181.2098417394401</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>419.4740407197875</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>786.1722010324529</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2035.780911248248</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1800.628803016505</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1007.446783179745</v>
+        <v>1112.634136258447</v>
       </c>
       <c r="C13" t="n">
-        <v>838.5106002518377</v>
+        <v>943.6979533305401</v>
       </c>
       <c r="D13" t="n">
-        <v>688.3939608395019</v>
+        <v>793.5813139182044</v>
       </c>
       <c r="E13" t="n">
-        <v>540.4808672571088</v>
+        <v>645.6682203358113</v>
       </c>
       <c r="F13" t="n">
-        <v>393.5909197591984</v>
+        <v>498.7782728379009</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>331.0754362126198</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>132.6552046957585</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>336.6423876446349</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>653.2021860931311</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>997.3592316926802</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1870.704707752618</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1858.48454666266</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1858.48454666266</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1858.48454666266</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1858.48454666266</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1858.48454666266</v>
       </c>
       <c r="W13" t="n">
-        <v>1637.877378051532</v>
+        <v>1743.064731130234</v>
       </c>
       <c r="X13" t="n">
-        <v>1409.887827153514</v>
+        <v>1515.075180232217</v>
       </c>
       <c r="Y13" t="n">
-        <v>1189.095248009984</v>
+        <v>1294.282601088687</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2209.232076102163</v>
+        <v>2366.187894490605</v>
       </c>
       <c r="C14" t="n">
-        <v>1840.269559161752</v>
+        <v>1997.225377550193</v>
       </c>
       <c r="D14" t="n">
-        <v>1482.003860555001</v>
+        <v>1638.959678943442</v>
       </c>
       <c r="E14" t="n">
-        <v>1096.215607956757</v>
+        <v>1253.171426345198</v>
       </c>
       <c r="F14" t="n">
-        <v>685.2297031671494</v>
+        <v>842.1855215555905</v>
       </c>
       <c r="G14" t="n">
-        <v>270.1572530121459</v>
+        <v>427.113071400587</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>129.5294710093542</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>443.8173522282015</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>777.6367259180479</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1228.670939166457</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1762.202843838381</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2577.746529374822</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>3080.719000254159</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3794.074087701105</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>4252.552290210093</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609169</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609169</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609169</v>
+        <v>4200.224367405303</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609169</v>
+        <v>3869.161480061733</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339055</v>
+        <v>3516.392824791618</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077975</v>
+        <v>3142.927066530538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102163</v>
+        <v>2752.787734554727</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>962.5643102977474</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>788.1112810166204</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>639.1768713553693</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>479.9394163499137</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>333.4048583767988</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>197.0417582094175</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>106.539863847285</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>181.20984173944</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>419.4740407197871</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>786.1722010324527</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2586.07399834998</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2456.491758435975</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2263.848758113831</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1546.391446288302</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1338.539946082769</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1130.779647317815</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>362.8175152271513</v>
+        <v>1112.634136258447</v>
       </c>
       <c r="C16" t="n">
-        <v>362.8175152271513</v>
+        <v>943.6979533305401</v>
       </c>
       <c r="D16" t="n">
-        <v>362.8175152271513</v>
+        <v>793.5813139182044</v>
       </c>
       <c r="E16" t="n">
-        <v>362.8175152271513</v>
+        <v>645.6682203358113</v>
       </c>
       <c r="F16" t="n">
-        <v>362.8175152271513</v>
+        <v>498.7782728379009</v>
       </c>
       <c r="G16" t="n">
-        <v>195.1146786018702</v>
+        <v>331.0754362126198</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>132.6552046957585</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>336.6423876446349</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>653.2021860931311</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>997.3592316926802</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>1870.704707752618</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1756.629119731959</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1756.629119731959</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1467.526252857602</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621292</v>
+        <v>1212.841764651715</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251686</v>
+        <v>1212.841764651715</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271513</v>
+        <v>1212.841764651715</v>
       </c>
       <c r="Y16" t="n">
-        <v>362.8175152271513</v>
+        <v>1212.841764651715</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5516,22 +5518,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5540,19 +5542,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5583,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>879.542498853856</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>710.6063159259492</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>560.4896765136134</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>412.5765829312203</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>1281.983542827626</v>
       </c>
       <c r="Y19" t="n">
-        <v>263.2638710736754</v>
+        <v>1061.190963684096</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5755,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104703</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V22" t="n">
-        <v>1956.343466104703</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W22" t="n">
-        <v>1666.926296067742</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X22" t="n">
-        <v>1438.936745169725</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="Y22" t="n">
-        <v>1218.144166026195</v>
+        <v>2992.78211041485</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,10 +6071,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6081,25 +6083,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3092.649987000256</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C25" t="n">
-        <v>2923.713804072349</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763413</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763413</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763413</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>4556.285106989247</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U25" t="n">
-        <v>4267.18224011489</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="V25" t="n">
-        <v>4012.497751909003</v>
+        <v>1796.967499402969</v>
       </c>
       <c r="W25" t="n">
-        <v>3723.080581872043</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X25" t="n">
-        <v>3495.091030974026</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y25" t="n">
-        <v>3274.298451830496</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2883.99303492678</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3763.957685256235</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6306,7 +6308,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,16 +6317,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6345,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3942.370854773037</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C28" t="n">
-        <v>3773.43467184513</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D28" t="n">
-        <v>3623.318032432794</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E28" t="n">
-        <v>3475.404938850401</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>3328.514991352491</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>3160.812154727209</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945067</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4764.487333817997</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4572.801449644823</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>4572.801449644823</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>4572.801449644823</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>4572.801449644823</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>4572.801449644823</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>4344.811898746806</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y28" t="n">
-        <v>4124.019319603276</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="29">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>736.381378691721</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>567.4451957638141</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>567.4451957638141</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.788099626699</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>964.3709295897384</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>736.381378691721</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>736.381378691721</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6785,22 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3086.20547369132</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="C34" t="n">
         <v>2917.269290763413</v>
@@ -6883,25 +6885,25 @@
         <v>4688.221265177249</v>
       </c>
       <c r="S34" t="n">
-        <v>4550.814629967255</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T34" t="n">
-        <v>4329.048014536781</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U34" t="n">
-        <v>4039.945147662424</v>
+        <v>3985.665898699244</v>
       </c>
       <c r="V34" t="n">
-        <v>3785.260659456538</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W34" t="n">
-        <v>3495.843489419577</v>
+        <v>3441.564240456397</v>
       </c>
       <c r="X34" t="n">
-        <v>3267.853938521559</v>
+        <v>3213.57468955838</v>
       </c>
       <c r="Y34" t="n">
-        <v>3267.853938521559</v>
+        <v>2992.78211041485</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690178</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143016</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544772</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551642</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001607</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089279</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.866738172573</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844497</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903279</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232734</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.49719767968</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188668</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419723</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604877</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261306</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991192</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730112</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.8161967543</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7038,28 +7040,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7111,34 +7113,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952196</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.34346610471</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.34346610471</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230354</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024467</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1339.847492740728</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.85794184271</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.0653626991802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7153,52 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232734</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.49719767968</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188668</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419723</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946816</v>
@@ -7248,16 +7250,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,7 +7271,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.662598458019</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C40" t="n">
-        <v>951.7264155301117</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D40" t="n">
-        <v>801.6097761177759</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="E40" t="n">
-        <v>653.6966825353828</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374724</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121914</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>177.5549764056626</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U40" t="n">
-        <v>1866.513008862231</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>1611.828520656344</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W40" t="n">
-        <v>1322.411350619383</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X40" t="n">
-        <v>1322.411350619383</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.311063288258</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1712.341567565138</v>
+        <v>2289.061662800286</v>
       </c>
       <c r="C41" t="n">
-        <v>1343.379050624726</v>
+        <v>1920.099145859875</v>
       </c>
       <c r="D41" t="n">
-        <v>985.1133520179758</v>
+        <v>1561.833447253124</v>
       </c>
       <c r="E41" t="n">
-        <v>599.3250994197315</v>
+        <v>1176.04519465488</v>
       </c>
       <c r="F41" t="n">
-        <v>188.3391946301239</v>
+        <v>765.0592898652724</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>427.113071400587</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>129.5294710093543</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>443.8173522282013</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>1098.540684363501</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1562.495063318369</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>2096.026967990293</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2642.805785049075</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>3145.778255928412</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3859.133343375358</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>4317.611545884346</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>4123.098135714985</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>3792.035248371414</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.546497866151</v>
+        <v>3439.2665931013</v>
       </c>
       <c r="X41" t="n">
-        <v>2489.080739605071</v>
+        <v>3065.80083484022</v>
       </c>
       <c r="Y41" t="n">
-        <v>2098.94140762926</v>
+        <v>2675.661502864408</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>962.5643102977482</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>788.1112810166212</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>639.1768713553699</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>479.9394163499145</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>333.4048583767994</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>197.0417582094175</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>106.539863847285</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>181.2098417394402</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>419.4740407197874</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>786.1722010324527</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1233.448526254768</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>373.8289708570292</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="C43" t="n">
-        <v>204.8927879291222</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>184.8582494304776</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>132.6552046957585</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>336.6423876446348</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>653.2021860931309</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>997.3592316926798</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1880.297404192876</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.46409084602</v>
+        <v>1688.611520019703</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.46409084602</v>
+        <v>1466.844904589229</v>
       </c>
       <c r="U43" t="n">
-        <v>1548.361223971664</v>
+        <v>1177.742037714873</v>
       </c>
       <c r="V43" t="n">
-        <v>1293.676735765777</v>
+        <v>923.0575495089856</v>
       </c>
       <c r="W43" t="n">
-        <v>1004.259565728816</v>
+        <v>633.6403794720251</v>
       </c>
       <c r="X43" t="n">
-        <v>776.270014830799</v>
+        <v>405.6508285740077</v>
       </c>
       <c r="Y43" t="n">
-        <v>555.4774356872689</v>
+        <v>184.8582494304776</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2255.174438931363</v>
+        <v>2366.187894490605</v>
       </c>
       <c r="C44" t="n">
-        <v>1886.211921990951</v>
+        <v>1997.225377550193</v>
       </c>
       <c r="D44" t="n">
-        <v>1527.9462233842</v>
+        <v>1638.959678943442</v>
       </c>
       <c r="E44" t="n">
-        <v>1142.157970785956</v>
+        <v>1253.171426345198</v>
       </c>
       <c r="F44" t="n">
-        <v>731.1720659963487</v>
+        <v>842.1855215555906</v>
       </c>
       <c r="G44" t="n">
-        <v>316.0996158413452</v>
+        <v>427.113071400587</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>129.5294710093543</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>443.8173522282013</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>1098.540684363501</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1549.574897611909</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>2083.106802283834</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2629.885619342615</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>3132.858090221952</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3846.213177668898</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>4252.552290210093</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>4376.628612441148</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>4200.224367405303</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.542934265599</v>
+        <v>3869.161480061733</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995485</v>
+        <v>3516.392824791618</v>
       </c>
       <c r="X44" t="n">
-        <v>2641.774278995485</v>
+        <v>3142.927066530538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2641.774278995485</v>
+        <v>2752.787734554727</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>962.5643102977482</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>788.1112810166212</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>639.1768713553699</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>479.9394163499145</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>333.4048583767994</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>197.0417582094175</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>106.539863847285</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>181.2098417394402</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>419.4740407197874</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>786.1722010324527</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1706.971569809223</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2117.932849227278</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2428.432440703381</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2586.073998349981</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2585.929644942496</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>943.7005868594143</v>
+        <v>847.6056224515113</v>
       </c>
       <c r="C46" t="n">
-        <v>774.7644039315074</v>
+        <v>678.6694395236044</v>
       </c>
       <c r="D46" t="n">
-        <v>624.6477645191717</v>
+        <v>528.5528001112687</v>
       </c>
       <c r="E46" t="n">
-        <v>624.6477645191717</v>
+        <v>380.6397065288755</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>233.7497590309652</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>233.7497590309652</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>87.53257224882296</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>132.6552046957585</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>336.6423876446348</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>653.2021860931309</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>997.3592316926798</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1338.767608398545</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1638.097207318958</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S46" t="n">
-        <v>1837.46409084602</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="T46" t="n">
-        <v>1635.244497707541</v>
+        <v>1726.548388474658</v>
       </c>
       <c r="U46" t="n">
-        <v>1346.141630833184</v>
+        <v>1437.445521600301</v>
       </c>
       <c r="V46" t="n">
-        <v>1346.141630833184</v>
+        <v>1182.761033394414</v>
       </c>
       <c r="W46" t="n">
-        <v>1346.141630833184</v>
+        <v>893.3438633574535</v>
       </c>
       <c r="X46" t="n">
-        <v>1346.141630833184</v>
+        <v>893.3438633574535</v>
       </c>
       <c r="Y46" t="n">
-        <v>1125.349051689654</v>
+        <v>893.3438633574535</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.36793656920736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8231,10 +8233,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>124.3053217775701</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.144312979140892</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>91.12519196309744</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.636418413812095</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>127.9451019578563</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>168.8820637317194</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>271.4796651289481</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8705,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>271.4796651289481</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>161.8544041422902</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>226.768859619312</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704411</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>315.1679217109336</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>132.999017557015</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476871</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>13.05067243076724</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,10 +11077,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>159.6492432176896</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.1251564493163</v>
+        <v>347.8837715282854</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>83.32522828944229</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>92.99907917315764</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>76.35496937341571</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>80.62642807260185</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>113.790898776169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>72.68309034909251</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.26811680410505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.32522828944245</v>
+        <v>105.0742887270147</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>142.2354048423655</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>183.2875889591587</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>75.50340795434039</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>135.4705141405839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270147</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>53.73645647354832</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25360,19 +25362,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>214.5414662356891</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>15.17841787214262</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25603,7 +25605,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.6853688942809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>290.3129182374923</v>
+        <v>76.35496937341497</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>11.61860823624295</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.5947289549148</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>47.51613997225039</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>76.35496937341571</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>134.5511216850545</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>19.35155206907498</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>981822.6974689841</v>
+        <v>994535.2673797334</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>972144.3615672112</v>
+        <v>994535.2673797334</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772123.0244046705</v>
+        <v>880000.6362864535</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772123.0244046702</v>
+        <v>880000.6362864535</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921202.9459189279</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921202.9459189282</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772123.0244046702</v>
+        <v>880000.6362864535</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772123.0244046705</v>
+        <v>880000.6362864533</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651766</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136507</v>
+        <v>476976.5637189936</v>
       </c>
       <c r="F2" t="n">
-        <v>426246.3737136506</v>
+        <v>476976.5637189936</v>
       </c>
       <c r="G2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="H2" t="n">
         <v>496352.2336087288</v>
       </c>
       <c r="I2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="J2" t="n">
         <v>496352.2336087289</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>496352.2336087288</v>
       </c>
-      <c r="K2" t="n">
-        <v>496352.2336087289</v>
-      </c>
       <c r="L2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.233608729</v>
       </c>
       <c r="M2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="N2" t="n">
-        <v>496352.2336087291</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="O2" t="n">
-        <v>426246.3737136508</v>
+        <v>476976.5637189937</v>
       </c>
       <c r="P2" t="n">
-        <v>426246.3737136506</v>
+        <v>476976.5637189937</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>111533.6047361813</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>79859.80284683706</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>445640.229573451</v>
+        <v>697413.386660611</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091503</v>
+        <v>27506.01327461929</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254678</v>
+        <v>104633.2536641697</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>190813.7345690821</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>5500.795347005322</v>
+        <v>22188.2897432124</v>
       </c>
       <c r="F4" t="n">
-        <v>5500.795347005322</v>
+        <v>22188.2897432124</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289579</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
         <v>28561.83935289579</v>
       </c>
       <c r="L4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="M4" t="n">
         <v>28561.83935289579</v>
       </c>
-      <c r="M4" t="n">
-        <v>28561.8393528958</v>
-      </c>
       <c r="N4" t="n">
-        <v>28561.8393528958</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="O4" t="n">
-        <v>5500.795347005322</v>
+        <v>22188.28974321243</v>
       </c>
       <c r="P4" t="n">
-        <v>5500.795347005323</v>
+        <v>22188.28974321242</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>85529.21560236585</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>90281.88698203936</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>90281.88698203936</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26491,7 +26493,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26500,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>90281.88698203934</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>90281.88698203934</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369598.2665758104</v>
+        <v>-369598.2665758103</v>
       </c>
       <c r="C6" t="n">
-        <v>125274.551257548</v>
+        <v>220369.612638734</v>
       </c>
       <c r="D6" t="n">
-        <v>169462.2822462137</v>
+        <v>220369.6126387338</v>
       </c>
       <c r="E6" t="n">
-        <v>-99200.99176819886</v>
+        <v>-332906.9996668692</v>
       </c>
       <c r="F6" t="n">
-        <v>346439.2378052521</v>
+        <v>364506.3869937417</v>
       </c>
       <c r="G6" t="n">
-        <v>271883.4673212044</v>
+        <v>343900.8627275001</v>
       </c>
       <c r="H6" t="n">
-        <v>371406.8760021194</v>
+        <v>371406.8760021195</v>
       </c>
       <c r="I6" t="n">
-        <v>371406.8760021195</v>
+        <v>371406.8760021196</v>
       </c>
       <c r="J6" t="n">
-        <v>194983.6568095264</v>
+        <v>194983.6568095266</v>
       </c>
       <c r="K6" t="n">
         <v>371406.8760021194</v>
       </c>
       <c r="L6" t="n">
-        <v>371406.8760021193</v>
+        <v>371406.8760021195</v>
       </c>
       <c r="M6" t="n">
-        <v>332253.3932295727</v>
+        <v>266773.6223379498</v>
       </c>
       <c r="N6" t="n">
-        <v>371406.8760021197</v>
+        <v>371406.8760021194</v>
       </c>
       <c r="O6" t="n">
-        <v>346439.2378052522</v>
+        <v>364506.386993742</v>
       </c>
       <c r="P6" t="n">
-        <v>346439.2378052521</v>
+        <v>364506.386993742</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>500.2270375637094</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1094.157153110287</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022923</v>
+        <v>1094.157153110287</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26822,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>1094.157153110287</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>1094.157153110287</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>122.4833733466227</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>93.24906277435569</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>496.300600255233</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>419.8698803557314</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>363.111475202638</v>
+        <v>100.3557774946432</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477375</v>
+        <v>419.8698803557314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>419.8698803557314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.111475202638</v>
+        <v>100.3557774946432</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.8638817074189</v>
+        <v>159.2186198626935</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27430,13 +27432,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>119.884929412623</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>189.8041403294844</v>
       </c>
       <c r="E5" t="n">
-        <v>271.3552900054113</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>318.8800276496391</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.54796558592813</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>214.2928591844926</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0889306021963</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>154.2071390199427</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>128.3234086934755</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>7.072454102005707</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>46.98457805851294</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>83.27430601484677</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>248.164543676267</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.8668451952063</v>
+        <v>63.13204062090063</v>
       </c>
     </row>
     <row r="11">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.010962965080237</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>20.59477446612798</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>77.52764971125592</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>170.6779679574789</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>255.8020302693254</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>317.3450381118998</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>353.1075007421454</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>358.8211492666797</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>338.8246362826631</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>289.1789880822446</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>217.1613768953086</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>126.3211523552216</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>45.82481856676595</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>8.802990379638743</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1608770372064189</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.075960043061564</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>10.39150883693668</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>37.0451155176898</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>101.6546284543384</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7439513394631</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>233.62018391124</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>272.6237354722215</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>279.8392745329284</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9982651577221</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>205.4611769947998</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>137.3453556722094</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>66.80390512973464</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>19.98548588756894</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>4.336874033217441</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07078684493826079</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9020487562624266</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>8.020033487496853</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>27.1270662337828</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>63.77484706775356</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>104.8016645912165</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
-        <v>134.1100487265066</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>141.4002427657547</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>138.0380610378676</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>127.5004914760747</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>109.0986968483211</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>75.53428267212011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>40.55939225885419</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>15.72024968868246</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>3.854208322212185</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04920265943249606</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33503,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33989,10 +33991,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34223,7 +34225,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002938</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>359.8575917955096</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>499.239837692363</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>572.2748010077052</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>566.7550100820729</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>489.5266061237216</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>182.2513141045452</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>65.94219375076909</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>300.3677493776827</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>465.906149434825</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>596.1947653002031</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>627.8399367931486</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>507.2643399900072</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>71.48676958046957</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>82.5321727653336</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
-        <v>161.7000739868228</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>180.9841197275953</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>182.1702334170962</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>152.0856193901143</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>106.3772561132146</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>268.6811179591222</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>350.1925044939465</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35333,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>727.0697795212802</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>823.7815005418596</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>669.9074050305093</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>682.3589740116439</v>
       </c>
       <c r="M20" t="n">
         <v>988.434649323059</v>
@@ -36133,7 +36135,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552631</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
@@ -36142,7 +36144,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>713.9299079303053</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37306,28 +37308,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>588.5891319493469</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37479,7 +37481,7 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451175</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
         <v>78.39423853789363</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359061</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,10 +37639,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>468.6407868230992</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37795,10 +37797,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -37871,7 +37873,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>410.443548021409</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859635</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1530281.804506152</v>
+        <v>1523066.654645041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6970360.774383797</v>
+        <v>6970360.77438381</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116356.600945275</v>
+        <v>1116356.600945286</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>206.0542719083141</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>307.7676307244759</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>129.6813527097528</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>105.8247259764142</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>164.8789012911986</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>60.13719935906725</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>26.78648996044848</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>139.5927378781521</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>26.53815412835749</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>138.0733949797866</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.4526127311942</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>63.03795412516809</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>109.065033225714</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>40.79100033485393</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>6.799270092382566</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>174.6402025854863</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.20555210933544</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>72.73795767383874</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>67.41386939711265</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>68.85005436466928</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>72.07252234110599</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>111.9187566128689</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110.613624706014</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>181.1375494785986</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>36.15999212057523</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.1740025376955</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>334.5667562800385</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>74.41010210763226</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.33742371513254</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>144.0459395732697</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>17.4153444404852</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>174.6402025854863</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.28085849688281</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.689018870909</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.288858935031</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1958.288858935031</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4412,19 +4412,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>597.1377188430478</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1915.885988017521</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C5" t="n">
-        <v>1915.885988017521</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4661,16 +4661,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>227.8899898843844</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>81.00004238647404</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>81.00004238647404</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>81.00004238647404</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>81.00004238647404</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>557.7092995265691</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>557.7092995265691</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>557.7092995265691</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>268.5356891811371</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>268.5356891811371</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>268.5356891811371</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="X7" t="n">
-        <v>268.5356891811371</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5356891811371</v>
+        <v>409.5384547146241</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>891.4467595608955</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>505.6585069626513</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>94.67260217304374</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>80.74919811163464</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>80.74919811163464</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358263</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1871.983983358263</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1732.515907621104</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4995,16 +4995,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9658229629848</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1972.793246711603</v>
+        <v>2178.770994327365</v>
       </c>
       <c r="C11" t="n">
-        <v>1603.830729771191</v>
+        <v>1809.808477386954</v>
       </c>
       <c r="D11" t="n">
-        <v>1245.565031164441</v>
+        <v>1451.542778780203</v>
       </c>
       <c r="E11" t="n">
-        <v>859.7767785661968</v>
+        <v>1065.754526181959</v>
       </c>
       <c r="F11" t="n">
-        <v>448.7908737765892</v>
+        <v>654.7686213923514</v>
       </c>
       <c r="G11" t="n">
-        <v>385.1161726400558</v>
+        <v>239.6961712373479</v>
       </c>
       <c r="H11" t="n">
-        <v>87.53257224882296</v>
+        <v>129.5294710093539</v>
       </c>
       <c r="I11" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J11" t="n">
-        <v>443.8173522282015</v>
+        <v>332.6230782221938</v>
       </c>
       <c r="K11" t="n">
-        <v>777.6367259180479</v>
+        <v>666.4424519120403</v>
       </c>
       <c r="L11" t="n">
-        <v>1497.435807644115</v>
+        <v>1117.476665160449</v>
       </c>
       <c r="M11" t="n">
-        <v>2030.96771231604</v>
+        <v>2096.026967990278</v>
       </c>
       <c r="N11" t="n">
-        <v>2577.746529374822</v>
+        <v>2642.80578504906</v>
       </c>
       <c r="O11" t="n">
-        <v>3080.719000254159</v>
+        <v>3145.778255928397</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.074087701105</v>
+        <v>3859.133343375343</v>
       </c>
       <c r="Q11" t="n">
-        <v>4252.552290210093</v>
+        <v>4317.611545884331</v>
       </c>
       <c r="R11" t="n">
-        <v>4376.628612441148</v>
+        <v>4376.628612441133</v>
       </c>
       <c r="S11" t="n">
-        <v>4266.337943968243</v>
+        <v>4266.337943968228</v>
       </c>
       <c r="T11" t="n">
-        <v>4060.360196352465</v>
+        <v>4266.337943968228</v>
       </c>
       <c r="U11" t="n">
-        <v>3806.829719626302</v>
+        <v>4012.807467242064</v>
       </c>
       <c r="V11" t="n">
-        <v>3475.766832282731</v>
+        <v>3681.744579898493</v>
       </c>
       <c r="W11" t="n">
-        <v>3122.998177012616</v>
+        <v>3328.975924628379</v>
       </c>
       <c r="X11" t="n">
-        <v>2749.532418751537</v>
+        <v>2955.510166367299</v>
       </c>
       <c r="Y11" t="n">
-        <v>2359.393086775725</v>
+        <v>2565.370834391487</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>962.5643102977483</v>
+        <v>962.564310297748</v>
       </c>
       <c r="C12" t="n">
-        <v>788.1112810166213</v>
+        <v>788.111281016621</v>
       </c>
       <c r="D12" t="n">
-        <v>639.1768713553702</v>
+        <v>639.1768713553697</v>
       </c>
       <c r="E12" t="n">
-        <v>479.9394163499146</v>
+        <v>479.9394163499142</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4048583767997</v>
+        <v>333.4048583767991</v>
       </c>
       <c r="G12" t="n">
-        <v>197.041758209418</v>
+        <v>197.0417582094172</v>
       </c>
       <c r="H12" t="n">
-        <v>106.539863847285</v>
+        <v>106.5398638472847</v>
       </c>
       <c r="I12" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J12" t="n">
-        <v>181.2098417394401</v>
+        <v>181.20984173944</v>
       </c>
       <c r="K12" t="n">
-        <v>419.4740407197875</v>
+        <v>419.4740407197871</v>
       </c>
       <c r="L12" t="n">
-        <v>786.1722010324529</v>
+        <v>786.1722010324524</v>
       </c>
       <c r="M12" t="n">
-        <v>1233.448526254769</v>
+        <v>1233.448526254768</v>
       </c>
       <c r="N12" t="n">
         <v>1706.971569809223</v>
@@ -5141,7 +5141,7 @@
         <v>2428.432440703381</v>
       </c>
       <c r="Q12" t="n">
-        <v>2586.073998349981</v>
+        <v>2586.07399834998</v>
       </c>
       <c r="R12" t="n">
         <v>2585.929644942496</v>
@@ -5153,10 +5153,10 @@
         <v>2263.848758113832</v>
       </c>
       <c r="U12" t="n">
-        <v>2035.780911248248</v>
+        <v>2035.780911248247</v>
       </c>
       <c r="V12" t="n">
-        <v>1800.628803016505</v>
+        <v>1800.628803016504</v>
       </c>
       <c r="W12" t="n">
         <v>1546.391446288303</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1112.634136258447</v>
+        <v>444.5617333159065</v>
       </c>
       <c r="C13" t="n">
-        <v>943.6979533305401</v>
+        <v>275.6255503879996</v>
       </c>
       <c r="D13" t="n">
-        <v>793.5813139182044</v>
+        <v>234.422519746733</v>
       </c>
       <c r="E13" t="n">
-        <v>645.6682203358113</v>
+        <v>234.422519746733</v>
       </c>
       <c r="F13" t="n">
-        <v>498.7782728379009</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="G13" t="n">
-        <v>331.0754362126198</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="H13" t="n">
-        <v>184.8582494304776</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="I13" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J13" t="n">
-        <v>132.6552046957585</v>
+        <v>132.6552046957582</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6423876446349</v>
+        <v>336.6423876446346</v>
       </c>
       <c r="L13" t="n">
-        <v>653.2021860931311</v>
+        <v>653.2021860931306</v>
       </c>
       <c r="M13" t="n">
-        <v>997.3592316926802</v>
+        <v>997.3592316926797</v>
       </c>
       <c r="N13" t="n">
-        <v>1338.767608398545</v>
+        <v>1338.767608398544</v>
       </c>
       <c r="O13" t="n">
         <v>1638.097207318958</v>
       </c>
       <c r="P13" t="n">
-        <v>1870.704707752618</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q13" t="n">
         <v>1948.315003905132</v>
       </c>
       <c r="R13" t="n">
-        <v>1858.48454666266</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S13" t="n">
-        <v>1858.48454666266</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="T13" t="n">
-        <v>1858.48454666266</v>
+        <v>1726.548388474658</v>
       </c>
       <c r="U13" t="n">
-        <v>1858.48454666266</v>
+        <v>1437.445521600302</v>
       </c>
       <c r="V13" t="n">
-        <v>1858.48454666266</v>
+        <v>1182.761033394415</v>
       </c>
       <c r="W13" t="n">
-        <v>1743.064731130234</v>
+        <v>893.343863357454</v>
       </c>
       <c r="X13" t="n">
-        <v>1515.075180232217</v>
+        <v>665.3543124594366</v>
       </c>
       <c r="Y13" t="n">
-        <v>1294.282601088687</v>
+        <v>444.5617333159065</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2366.187894490605</v>
+        <v>1972.793246711588</v>
       </c>
       <c r="C14" t="n">
-        <v>1997.225377550193</v>
+        <v>1603.830729771176</v>
       </c>
       <c r="D14" t="n">
-        <v>1638.959678943442</v>
+        <v>1596.962780182911</v>
       </c>
       <c r="E14" t="n">
-        <v>1253.171426345198</v>
+        <v>1211.174527584667</v>
       </c>
       <c r="F14" t="n">
-        <v>842.1855215555905</v>
+        <v>800.188622795059</v>
       </c>
       <c r="G14" t="n">
-        <v>427.113071400587</v>
+        <v>385.1161726400554</v>
       </c>
       <c r="H14" t="n">
-        <v>129.5294710093542</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="I14" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J14" t="n">
-        <v>443.8173522282015</v>
+        <v>443.8173522282011</v>
       </c>
       <c r="K14" t="n">
-        <v>777.6367259180479</v>
+        <v>1098.540684363501</v>
       </c>
       <c r="L14" t="n">
-        <v>1228.670939166457</v>
+        <v>1549.574897611909</v>
       </c>
       <c r="M14" t="n">
-        <v>1762.202843838381</v>
+        <v>2083.106802283834</v>
       </c>
       <c r="N14" t="n">
-        <v>2577.746529374822</v>
+        <v>2629.885619342616</v>
       </c>
       <c r="O14" t="n">
-        <v>3080.719000254159</v>
+        <v>3509.850269672071</v>
       </c>
       <c r="P14" t="n">
-        <v>3794.074087701105</v>
+        <v>3904.624636029249</v>
       </c>
       <c r="Q14" t="n">
-        <v>4252.552290210093</v>
+        <v>4317.611545884331</v>
       </c>
       <c r="R14" t="n">
-        <v>4376.628612441148</v>
+        <v>4376.628612441133</v>
       </c>
       <c r="S14" t="n">
-        <v>4376.628612441148</v>
+        <v>4266.337943968228</v>
       </c>
       <c r="T14" t="n">
-        <v>4376.628612441148</v>
+        <v>4060.36019635245</v>
       </c>
       <c r="U14" t="n">
-        <v>4200.224367405303</v>
+        <v>3806.829719626286</v>
       </c>
       <c r="V14" t="n">
-        <v>3869.161480061733</v>
+        <v>3475.766832282715</v>
       </c>
       <c r="W14" t="n">
-        <v>3516.392824791618</v>
+        <v>3122.998177012601</v>
       </c>
       <c r="X14" t="n">
-        <v>3142.927066530538</v>
+        <v>2749.532418751521</v>
       </c>
       <c r="Y14" t="n">
-        <v>2752.787734554727</v>
+        <v>2359.393086775709</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.5643102977474</v>
+        <v>962.564310297748</v>
       </c>
       <c r="C15" t="n">
-        <v>788.1112810166204</v>
+        <v>788.111281016621</v>
       </c>
       <c r="D15" t="n">
-        <v>639.1768713553693</v>
+        <v>639.1768713553697</v>
       </c>
       <c r="E15" t="n">
-        <v>479.9394163499137</v>
+        <v>479.9394163499142</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4048583767988</v>
+        <v>333.4048583767991</v>
       </c>
       <c r="G15" t="n">
-        <v>197.0417582094175</v>
+        <v>197.0417582094172</v>
       </c>
       <c r="H15" t="n">
-        <v>106.539863847285</v>
+        <v>106.5398638472847</v>
       </c>
       <c r="I15" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J15" t="n">
         <v>181.20984173944</v>
@@ -5363,10 +5363,10 @@
         <v>419.4740407197871</v>
       </c>
       <c r="L15" t="n">
-        <v>786.1722010324527</v>
+        <v>786.1722010324524</v>
       </c>
       <c r="M15" t="n">
-        <v>1233.448526254769</v>
+        <v>1233.448526254768</v>
       </c>
       <c r="N15" t="n">
         <v>1706.971569809223</v>
@@ -5384,10 +5384,10 @@
         <v>2585.929644942496</v>
       </c>
       <c r="S15" t="n">
-        <v>2456.491758435975</v>
+        <v>2456.491758435976</v>
       </c>
       <c r="T15" t="n">
-        <v>2263.848758113831</v>
+        <v>2263.848758113832</v>
       </c>
       <c r="U15" t="n">
         <v>2035.780911248247</v>
@@ -5396,13 +5396,13 @@
         <v>1800.628803016504</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.391446288302</v>
+        <v>1546.391446288303</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.539946082769</v>
+        <v>1338.53994608277</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130.779647317815</v>
+        <v>1130.779647317816</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1112.634136258447</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="C16" t="n">
-        <v>943.6979533305401</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="D16" t="n">
-        <v>793.5813139182044</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="E16" t="n">
-        <v>645.6682203358113</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="F16" t="n">
-        <v>498.7782728379009</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="G16" t="n">
-        <v>331.0754362126198</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="H16" t="n">
-        <v>184.8582494304776</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="I16" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J16" t="n">
-        <v>132.6552046957585</v>
+        <v>132.6552046957582</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6423876446349</v>
+        <v>336.6423876446346</v>
       </c>
       <c r="L16" t="n">
-        <v>653.2021860931311</v>
+        <v>653.2021860931306</v>
       </c>
       <c r="M16" t="n">
-        <v>997.3592316926802</v>
+        <v>997.3592316926797</v>
       </c>
       <c r="N16" t="n">
-        <v>1338.767608398545</v>
+        <v>1338.767608398544</v>
       </c>
       <c r="O16" t="n">
         <v>1638.097207318958</v>
       </c>
       <c r="P16" t="n">
-        <v>1870.704707752618</v>
+        <v>1870.704707752617</v>
       </c>
       <c r="Q16" t="n">
         <v>1948.315003905132</v>
       </c>
       <c r="R16" t="n">
-        <v>1948.315003905132</v>
+        <v>1858.48454666266</v>
       </c>
       <c r="S16" t="n">
-        <v>1756.629119731959</v>
+        <v>1666.798662489486</v>
       </c>
       <c r="T16" t="n">
-        <v>1756.629119731959</v>
+        <v>1445.032047059012</v>
       </c>
       <c r="U16" t="n">
-        <v>1467.526252857602</v>
+        <v>1155.929180184656</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.841764651715</v>
+        <v>901.2446919787689</v>
       </c>
       <c r="W16" t="n">
-        <v>1212.841764651715</v>
+        <v>611.8275219418083</v>
       </c>
       <c r="X16" t="n">
-        <v>1212.841764651715</v>
+        <v>383.837971043791</v>
       </c>
       <c r="Y16" t="n">
-        <v>1212.841764651715</v>
+        <v>163.0453919002609</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867999</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>2883.993034926781</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5597,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.542498853856</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>710.6063159259492</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>560.4896765136134</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>412.5765829312203</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.65758193153</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V19" t="n">
-        <v>1509.973093725643</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W19" t="n">
-        <v>1509.973093725643</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X19" t="n">
-        <v>1281.983542827626</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y19" t="n">
-        <v>1061.190963684096</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="20">
@@ -5755,25 +5755,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814247</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5782,7 +5782,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,40 +5831,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493358</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>3441.564240456397</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>3213.57468955838</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>2992.78211041485</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>877.1197344942216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1866.513008862231</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1866.513008862231</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1796.967499402969</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1507.550329366009</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1279.560778467991</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.768199324461</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.8067350374723</v>
+        <v>630.8674397712578</v>
       </c>
       <c r="C28" t="n">
-        <v>506.8067350374723</v>
+        <v>630.8674397712578</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>630.8674397712578</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>482.9543461888646</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>336.0643986909542</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>168.3615620656732</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>168.3615620656732</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X28" t="n">
-        <v>506.8067350374723</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.8067350374723</v>
+        <v>812.5159046014975</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6472,13 +6472,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,28 +6542,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>623.6704680167705</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>454.7342850888637</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>304.6176456765279</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>304.6176456765279</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>304.6176456765279</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1033.308483745028</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>805.3189328470103</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>805.3189328470103</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,13 +6779,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2917.269290763413</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763413</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763413</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763413</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763413</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763413</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699244</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493358</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456397</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.57468955838</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y34" t="n">
-        <v>2992.78211041485</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>132.086279014632</v>
       </c>
       <c r="D37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="38">
@@ -7183,19 +7183,19 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,22 +7253,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902953</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>492.7083461157117</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>323.7721631878048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>177.5549764056626</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.55611102446</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.138940987499</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>895.1493900894816</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.3568109459515</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2289.061662800286</v>
+        <v>2007.922195883854</v>
       </c>
       <c r="C41" t="n">
-        <v>1920.099145859875</v>
+        <v>1638.959678943442</v>
       </c>
       <c r="D41" t="n">
-        <v>1561.833447253124</v>
+        <v>1638.959678943442</v>
       </c>
       <c r="E41" t="n">
-        <v>1176.04519465488</v>
+        <v>1253.171426345198</v>
       </c>
       <c r="F41" t="n">
-        <v>765.0592898652724</v>
+        <v>842.1855215555902</v>
       </c>
       <c r="G41" t="n">
-        <v>427.113071400587</v>
+        <v>427.1130714005867</v>
       </c>
       <c r="H41" t="n">
-        <v>129.5294710093543</v>
+        <v>129.5294710093539</v>
       </c>
       <c r="I41" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J41" t="n">
-        <v>443.8173522282013</v>
+        <v>276.4117032078481</v>
       </c>
       <c r="K41" t="n">
-        <v>1098.540684363501</v>
+        <v>610.2310768976946</v>
       </c>
       <c r="L41" t="n">
-        <v>1562.495063318369</v>
+        <v>1474.749892551049</v>
       </c>
       <c r="M41" t="n">
-        <v>2096.026967990293</v>
+        <v>2008.281797222974</v>
       </c>
       <c r="N41" t="n">
-        <v>2642.805785049075</v>
+        <v>2794.586167442015</v>
       </c>
       <c r="O41" t="n">
-        <v>3145.778255928412</v>
+        <v>3674.55081777147</v>
       </c>
       <c r="P41" t="n">
-        <v>3859.133343375358</v>
+        <v>4069.325184128648</v>
       </c>
       <c r="Q41" t="n">
-        <v>4317.611545884346</v>
+        <v>4317.611545884331</v>
       </c>
       <c r="R41" t="n">
-        <v>4376.628612441148</v>
+        <v>4376.628612441133</v>
       </c>
       <c r="S41" t="n">
-        <v>4376.628612441148</v>
+        <v>4301.466893140494</v>
       </c>
       <c r="T41" t="n">
-        <v>4376.628612441148</v>
+        <v>4095.489145524716</v>
       </c>
       <c r="U41" t="n">
-        <v>4123.098135714985</v>
+        <v>3841.958668798552</v>
       </c>
       <c r="V41" t="n">
-        <v>3792.035248371414</v>
+        <v>3510.895781454981</v>
       </c>
       <c r="W41" t="n">
-        <v>3439.2665931013</v>
+        <v>3158.127126184867</v>
       </c>
       <c r="X41" t="n">
-        <v>3065.80083484022</v>
+        <v>2784.661367923787</v>
       </c>
       <c r="Y41" t="n">
-        <v>2675.661502864408</v>
+        <v>2394.522035947975</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>962.5643102977482</v>
+        <v>962.564310297748</v>
       </c>
       <c r="C42" t="n">
-        <v>788.1112810166212</v>
+        <v>788.111281016621</v>
       </c>
       <c r="D42" t="n">
-        <v>639.1768713553699</v>
+        <v>639.1768713553697</v>
       </c>
       <c r="E42" t="n">
-        <v>479.9394163499145</v>
+        <v>479.9394163499142</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4048583767994</v>
+        <v>333.4048583767991</v>
       </c>
       <c r="G42" t="n">
-        <v>197.0417582094175</v>
+        <v>197.0417582094172</v>
       </c>
       <c r="H42" t="n">
-        <v>106.539863847285</v>
+        <v>106.5398638472847</v>
       </c>
       <c r="I42" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J42" t="n">
-        <v>181.2098417394402</v>
+        <v>181.20984173944</v>
       </c>
       <c r="K42" t="n">
-        <v>419.4740407197874</v>
+        <v>419.4740407197871</v>
       </c>
       <c r="L42" t="n">
-        <v>786.1722010324527</v>
+        <v>786.1722010324524</v>
       </c>
       <c r="M42" t="n">
         <v>1233.448526254768</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184.8582494304776</v>
+        <v>817.8310951781432</v>
       </c>
       <c r="C43" t="n">
-        <v>184.8582494304776</v>
+        <v>648.8949122502363</v>
       </c>
       <c r="D43" t="n">
-        <v>184.8582494304776</v>
+        <v>498.7782728379005</v>
       </c>
       <c r="E43" t="n">
-        <v>184.8582494304776</v>
+        <v>498.7782728379005</v>
       </c>
       <c r="F43" t="n">
-        <v>184.8582494304776</v>
+        <v>498.7782728379005</v>
       </c>
       <c r="G43" t="n">
-        <v>184.8582494304776</v>
+        <v>331.0754362126195</v>
       </c>
       <c r="H43" t="n">
-        <v>184.8582494304776</v>
+        <v>184.8582494304773</v>
       </c>
       <c r="I43" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J43" t="n">
-        <v>132.6552046957585</v>
+        <v>132.6552046957582</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6423876446348</v>
+        <v>336.6423876446346</v>
       </c>
       <c r="L43" t="n">
-        <v>653.2021860931309</v>
+        <v>653.2021860931306</v>
       </c>
       <c r="M43" t="n">
-        <v>997.3592316926798</v>
+        <v>997.3592316926797</v>
       </c>
       <c r="N43" t="n">
-        <v>1338.767608398545</v>
+        <v>1338.767608398544</v>
       </c>
       <c r="O43" t="n">
         <v>1638.097207318958</v>
@@ -7593,28 +7593,28 @@
         <v>1948.315003905132</v>
       </c>
       <c r="R43" t="n">
-        <v>1880.297404192876</v>
+        <v>1858.48454666266</v>
       </c>
       <c r="S43" t="n">
-        <v>1688.611520019703</v>
+        <v>1666.798662489486</v>
       </c>
       <c r="T43" t="n">
-        <v>1466.844904589229</v>
+        <v>1521.297713425578</v>
       </c>
       <c r="U43" t="n">
-        <v>1177.742037714873</v>
+        <v>1521.297713425578</v>
       </c>
       <c r="V43" t="n">
-        <v>923.0575495089856</v>
+        <v>1266.613225219691</v>
       </c>
       <c r="W43" t="n">
-        <v>633.6403794720251</v>
+        <v>1266.613225219691</v>
       </c>
       <c r="X43" t="n">
-        <v>405.6508285740077</v>
+        <v>1038.623674321673</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.8582494304776</v>
+        <v>817.8310951781432</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2366.187894490605</v>
+        <v>1972.793246711588</v>
       </c>
       <c r="C44" t="n">
-        <v>1997.225377550193</v>
+        <v>1603.830729771176</v>
       </c>
       <c r="D44" t="n">
-        <v>1638.959678943442</v>
+        <v>1245.565031164426</v>
       </c>
       <c r="E44" t="n">
-        <v>1253.171426345198</v>
+        <v>859.7767785661813</v>
       </c>
       <c r="F44" t="n">
-        <v>842.1855215555906</v>
+        <v>842.1855215555902</v>
       </c>
       <c r="G44" t="n">
-        <v>427.113071400587</v>
+        <v>427.1130714005867</v>
       </c>
       <c r="H44" t="n">
-        <v>129.5294710093543</v>
+        <v>129.5294710093539</v>
       </c>
       <c r="I44" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J44" t="n">
-        <v>443.8173522282013</v>
+        <v>276.4117032078481</v>
       </c>
       <c r="K44" t="n">
-        <v>1098.540684363501</v>
+        <v>610.2310768976946</v>
       </c>
       <c r="L44" t="n">
-        <v>1549.574897611909</v>
+        <v>1213.275771835658</v>
       </c>
       <c r="M44" t="n">
-        <v>2083.106802283834</v>
+        <v>2191.826074665486</v>
       </c>
       <c r="N44" t="n">
-        <v>2629.885619342615</v>
+        <v>3171.578346892133</v>
       </c>
       <c r="O44" t="n">
-        <v>3132.858090221952</v>
+        <v>3674.55081777147</v>
       </c>
       <c r="P44" t="n">
-        <v>3846.213177668898</v>
+        <v>4069.325184128648</v>
       </c>
       <c r="Q44" t="n">
-        <v>4252.552290210093</v>
+        <v>4317.611545884331</v>
       </c>
       <c r="R44" t="n">
-        <v>4376.628612441148</v>
+        <v>4376.628612441133</v>
       </c>
       <c r="S44" t="n">
-        <v>4376.628612441148</v>
+        <v>4266.337943968228</v>
       </c>
       <c r="T44" t="n">
-        <v>4376.628612441148</v>
+        <v>4060.36019635245</v>
       </c>
       <c r="U44" t="n">
-        <v>4200.224367405303</v>
+        <v>3806.829719626286</v>
       </c>
       <c r="V44" t="n">
-        <v>3869.161480061733</v>
+        <v>3475.766832282715</v>
       </c>
       <c r="W44" t="n">
-        <v>3516.392824791618</v>
+        <v>3122.998177012601</v>
       </c>
       <c r="X44" t="n">
-        <v>3142.927066530538</v>
+        <v>2749.532418751521</v>
       </c>
       <c r="Y44" t="n">
-        <v>2752.787734554727</v>
+        <v>2359.393086775709</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>962.5643102977482</v>
+        <v>962.564310297748</v>
       </c>
       <c r="C45" t="n">
-        <v>788.1112810166212</v>
+        <v>788.111281016621</v>
       </c>
       <c r="D45" t="n">
-        <v>639.1768713553699</v>
+        <v>639.1768713553697</v>
       </c>
       <c r="E45" t="n">
-        <v>479.9394163499145</v>
+        <v>479.9394163499142</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4048583767994</v>
+        <v>333.4048583767991</v>
       </c>
       <c r="G45" t="n">
-        <v>197.0417582094175</v>
+        <v>197.0417582094172</v>
       </c>
       <c r="H45" t="n">
-        <v>106.539863847285</v>
+        <v>106.5398638472847</v>
       </c>
       <c r="I45" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J45" t="n">
-        <v>181.2098417394402</v>
+        <v>181.20984173944</v>
       </c>
       <c r="K45" t="n">
-        <v>419.4740407197874</v>
+        <v>419.4740407197871</v>
       </c>
       <c r="L45" t="n">
-        <v>786.1722010324527</v>
+        <v>786.1722010324524</v>
       </c>
       <c r="M45" t="n">
-        <v>1233.448526254769</v>
+        <v>1233.448526254768</v>
       </c>
       <c r="N45" t="n">
         <v>1706.971569809223</v>
@@ -7748,7 +7748,7 @@
         <v>2428.432440703381</v>
       </c>
       <c r="Q45" t="n">
-        <v>2586.073998349981</v>
+        <v>2586.07399834998</v>
       </c>
       <c r="R45" t="n">
         <v>2585.929644942496</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6056224515113</v>
+        <v>256.4687551767296</v>
       </c>
       <c r="C46" t="n">
-        <v>678.6694395236044</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="D46" t="n">
-        <v>528.5528001112687</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="E46" t="n">
-        <v>380.6397065288755</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="F46" t="n">
-        <v>233.7497590309652</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="G46" t="n">
-        <v>233.7497590309652</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="H46" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="I46" t="n">
-        <v>87.53257224882296</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="J46" t="n">
-        <v>132.6552046957585</v>
+        <v>132.6552046957582</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6423876446348</v>
+        <v>336.6423876446346</v>
       </c>
       <c r="L46" t="n">
-        <v>653.2021860931309</v>
+        <v>653.2021860931306</v>
       </c>
       <c r="M46" t="n">
-        <v>997.3592316926798</v>
+        <v>997.3592316926797</v>
       </c>
       <c r="N46" t="n">
-        <v>1338.767608398545</v>
+        <v>1338.767608398544</v>
       </c>
       <c r="O46" t="n">
         <v>1638.097207318958</v>
@@ -7833,25 +7833,25 @@
         <v>1948.315003905132</v>
       </c>
       <c r="S46" t="n">
-        <v>1948.315003905132</v>
+        <v>1756.629119731958</v>
       </c>
       <c r="T46" t="n">
-        <v>1726.548388474658</v>
+        <v>1534.862504301484</v>
       </c>
       <c r="U46" t="n">
-        <v>1437.445521600301</v>
+        <v>1245.759637427128</v>
       </c>
       <c r="V46" t="n">
-        <v>1182.761033394414</v>
+        <v>1176.316520085477</v>
       </c>
       <c r="W46" t="n">
-        <v>893.3438633574535</v>
+        <v>886.8993500485168</v>
       </c>
       <c r="X46" t="n">
-        <v>893.3438633574535</v>
+        <v>658.9097991504995</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.3438633574535</v>
+        <v>438.1172200069693</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8464,7 +8464,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>56.77916668115728</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>271.4796651289481</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>271.4796651289481</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>166.3641899993928</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>161.8544041422902</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>226.768859619312</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.253057640027</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>13.05067243076724</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>241.9450031921806</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>153.54594110056</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.6492432176896</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>347.8837715282854</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>185.5427311616065</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107.8244726833584</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>347.8837715283004</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>76.35496937341571</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.62642807260185</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>72.68309034909251</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>152.1350798790565</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270147</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>183.2875889591587</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>24.27989806873209</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>113.7908987761683</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>55.41218355301419</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270147</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4554808976371</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>15.17841787214262</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>76.35496937341497</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>34.77765968054358</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.5947289549148</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>75.50300970289948</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>389.4607013012263</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>76.35496937341571</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.5511216850545</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>183.3889571555939</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880000.6362864535</v>
+        <v>880000.6362864521</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880000.6362864535</v>
+        <v>880000.6362864518</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921202.9459189281</v>
+        <v>921202.945918928</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>880000.6362864535</v>
+        <v>880000.6362864521</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>880000.6362864533</v>
+        <v>880000.6362864519</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>476976.5637189936</v>
+        <v>476976.5637189927</v>
       </c>
       <c r="F2" t="n">
-        <v>476976.5637189936</v>
+        <v>476976.5637189928</v>
       </c>
       <c r="G2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="H2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="I2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="J2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
         <v>496352.233608729</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="N2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="O2" t="n">
-        <v>476976.5637189937</v>
+        <v>476976.5637189928</v>
       </c>
       <c r="P2" t="n">
-        <v>476976.5637189937</v>
+        <v>476976.5637189929</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697413.386660611</v>
+        <v>697413.3866606099</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27506.01327461929</v>
+        <v>27506.01327462035</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104633.2536641697</v>
+        <v>104633.2536641687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>22188.2897432124</v>
+        <v>22188.28974321217</v>
       </c>
       <c r="F4" t="n">
-        <v>22188.2897432124</v>
+        <v>22188.28974321216</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289579</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289579</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>22188.28974321243</v>
+        <v>22188.28974321215</v>
       </c>
       <c r="P4" t="n">
-        <v>22188.28974321242</v>
+        <v>22188.28974321216</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90281.88698203936</v>
+        <v>90281.88698203911</v>
       </c>
       <c r="F5" t="n">
-        <v>90281.88698203936</v>
+        <v>90281.88698203911</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>90281.88698203934</v>
+        <v>90281.88698203911</v>
       </c>
       <c r="P5" t="n">
-        <v>90281.88698203934</v>
+        <v>90281.88698203911</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>220369.612638734</v>
       </c>
       <c r="D6" t="n">
-        <v>220369.6126387338</v>
+        <v>220369.6126387343</v>
       </c>
       <c r="E6" t="n">
-        <v>-332906.9996668692</v>
+        <v>-334353.9813647158</v>
       </c>
       <c r="F6" t="n">
-        <v>364506.3869937417</v>
+        <v>363059.4052958941</v>
       </c>
       <c r="G6" t="n">
-        <v>343900.8627275001</v>
+        <v>343228.907825241</v>
       </c>
       <c r="H6" t="n">
-        <v>371406.8760021195</v>
+        <v>370734.9210998615</v>
       </c>
       <c r="I6" t="n">
-        <v>371406.8760021196</v>
+        <v>370734.9210998614</v>
       </c>
       <c r="J6" t="n">
-        <v>194983.6568095266</v>
+        <v>194311.7019072686</v>
       </c>
       <c r="K6" t="n">
-        <v>371406.8760021194</v>
+        <v>370734.9210998616</v>
       </c>
       <c r="L6" t="n">
-        <v>371406.8760021195</v>
+        <v>370734.9210998616</v>
       </c>
       <c r="M6" t="n">
-        <v>266773.6223379498</v>
+        <v>266101.6674356927</v>
       </c>
       <c r="N6" t="n">
-        <v>371406.8760021194</v>
+        <v>370734.9210998616</v>
       </c>
       <c r="O6" t="n">
-        <v>364506.386993742</v>
+        <v>363059.4052958941</v>
       </c>
       <c r="P6" t="n">
-        <v>364506.386993742</v>
+        <v>363059.4052958942</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1094.157153110287</v>
+        <v>1094.157153110283</v>
       </c>
       <c r="F4" t="n">
-        <v>1094.157153110287</v>
+        <v>1094.157153110283</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26828,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1094.157153110287</v>
+        <v>1094.157153110283</v>
       </c>
       <c r="P4" t="n">
-        <v>1094.157153110287</v>
+        <v>1094.157153110283</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>419.8698803557314</v>
+        <v>419.8698803557275</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100.3557774946432</v>
+        <v>100.3557774946471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557314</v>
+        <v>419.8698803557275</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557314</v>
+        <v>419.8698803557275</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>100.3557774946432</v>
+        <v>100.3557774946471</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.2186198626935</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>99.10841501723559</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>122.4562906140752</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>119.884929412623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>189.8041403294844</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>321.7931707131945</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.41346922808852</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>7.072454102005707</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.3931621165038</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.164543676267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.13204062090063</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>247.5661676498698</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>727.0697795212802</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
@@ -35658,19 +35658,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>823.7815005418596</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>417.1584948031123</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
@@ -35898,13 +35898,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>669.9074050305093</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>682.3589740116439</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.306058528246</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>468.6407868230992</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>794.2468386050921</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>609.1360554928922</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>410.443548021409</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1523066.654645041</v>
+        <v>1527858.352109344</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6970360.77438381</v>
+        <v>6970360.774383808</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.7676307244759</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>145.8215431037985</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>129.6813527097528</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60.13719935906725</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>215.7890775924895</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -952,7 +952,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.78648996044848</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>26.53815412835749</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>130.4588318996849</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>17.4153444404852</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>109.065033225714</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>40.79100033485393</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>114.6206387726276</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>6.799270092382566</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>376.1436860529495</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.7576914549238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>279.3277074513057</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>67.41386939711265</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.6290529729278</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2529,10 +2529,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>72.07252234110599</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>30.27693440363684</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.613624706014</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>102.6669312235189</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>14.20241529279299</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>36.15999212057523</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>144.7636333696815</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6.38006817584762</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>370.7019930696401</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>74.41010210763226</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>144.0459395732697</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>17.4153444404852</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>356.960171101905</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>68.74868616823407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.7640381573254</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.489254012808</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C4" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="V4" t="n">
-        <v>597.1377188430478</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="W4" t="n">
-        <v>597.1377188430478</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="X4" t="n">
-        <v>597.1377188430478</v>
+        <v>551.4175770764215</v>
       </c>
       <c r="Y4" t="n">
-        <v>597.1377188430478</v>
+        <v>551.4175770764215</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.103316533935</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.103316533935</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="D5" t="n">
-        <v>1097.103316533935</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>843.3415311720269</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1483.703156598057</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,31 +4646,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.8899898843844</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>227.8899898843844</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>227.8899898843844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>227.8899898843844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>81.00004238647404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>81.00004238647404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>81.00004238647404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>81.00004238647404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146241</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.712458167646</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>891.4467595608955</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>505.6585069626513</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>94.67260217304374</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>80.74919811163464</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>80.74919811163464</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2334.166315984416</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4968,43 +4968,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714563</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2178.770994327365</v>
+        <v>1972.793246711588</v>
       </c>
       <c r="C11" t="n">
-        <v>1809.808477386954</v>
+        <v>1603.830729771176</v>
       </c>
       <c r="D11" t="n">
-        <v>1451.542778780203</v>
+        <v>1245.565031164426</v>
       </c>
       <c r="E11" t="n">
-        <v>1065.754526181959</v>
+        <v>859.7767785661813</v>
       </c>
       <c r="F11" t="n">
-        <v>654.7686213923514</v>
+        <v>842.1855215555902</v>
       </c>
       <c r="G11" t="n">
-        <v>239.6961712373479</v>
+        <v>427.1130714005867</v>
       </c>
       <c r="H11" t="n">
-        <v>129.5294710093539</v>
+        <v>129.529471009354</v>
       </c>
       <c r="I11" t="n">
         <v>87.53257224882266</v>
       </c>
       <c r="J11" t="n">
-        <v>332.6230782221938</v>
+        <v>276.4117032078481</v>
       </c>
       <c r="K11" t="n">
-        <v>666.4424519120403</v>
+        <v>610.2310768976945</v>
       </c>
       <c r="L11" t="n">
-        <v>1117.476665160449</v>
+        <v>1213.275771835658</v>
       </c>
       <c r="M11" t="n">
-        <v>2096.026967990278</v>
+        <v>2191.826074665487</v>
       </c>
       <c r="N11" t="n">
-        <v>2642.80578504906</v>
+        <v>3171.578346892134</v>
       </c>
       <c r="O11" t="n">
-        <v>3145.778255928397</v>
+        <v>3674.550817771471</v>
       </c>
       <c r="P11" t="n">
-        <v>3859.133343375343</v>
+        <v>4069.325184128648</v>
       </c>
       <c r="Q11" t="n">
         <v>4317.611545884331</v>
@@ -5071,22 +5071,22 @@
         <v>4266.337943968228</v>
       </c>
       <c r="T11" t="n">
-        <v>4266.337943968228</v>
+        <v>4060.36019635245</v>
       </c>
       <c r="U11" t="n">
-        <v>4012.807467242064</v>
+        <v>3806.829719626286</v>
       </c>
       <c r="V11" t="n">
-        <v>3681.744579898493</v>
+        <v>3475.766832282715</v>
       </c>
       <c r="W11" t="n">
-        <v>3328.975924628379</v>
+        <v>3122.998177012601</v>
       </c>
       <c r="X11" t="n">
-        <v>2955.510166367299</v>
+        <v>2749.532418751521</v>
       </c>
       <c r="Y11" t="n">
-        <v>2565.370834391487</v>
+        <v>2359.393086775709</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>962.564310297748</v>
+        <v>962.5643102977474</v>
       </c>
       <c r="C12" t="n">
-        <v>788.111281016621</v>
+        <v>788.1112810166204</v>
       </c>
       <c r="D12" t="n">
-        <v>639.1768713553697</v>
+        <v>639.1768713553693</v>
       </c>
       <c r="E12" t="n">
-        <v>479.9394163499142</v>
+        <v>479.9394163499137</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4048583767991</v>
+        <v>333.4048583767988</v>
       </c>
       <c r="G12" t="n">
-        <v>197.0417582094172</v>
+        <v>197.0417582094173</v>
       </c>
       <c r="H12" t="n">
-        <v>106.5398638472847</v>
+        <v>106.5398638472848</v>
       </c>
       <c r="I12" t="n">
         <v>87.53257224882266</v>
       </c>
       <c r="J12" t="n">
-        <v>181.20984173944</v>
+        <v>181.2098417394398</v>
       </c>
       <c r="K12" t="n">
-        <v>419.4740407197871</v>
+        <v>419.4740407197868</v>
       </c>
       <c r="L12" t="n">
-        <v>786.1722010324524</v>
+        <v>786.1722010324521</v>
       </c>
       <c r="M12" t="n">
         <v>1233.448526254768</v>
@@ -5135,10 +5135,10 @@
         <v>1706.971569809223</v>
       </c>
       <c r="O12" t="n">
-        <v>2117.932849227278</v>
+        <v>2117.932849227277</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.432440703381</v>
+        <v>2428.43244070338</v>
       </c>
       <c r="Q12" t="n">
         <v>2586.07399834998</v>
@@ -5147,10 +5147,10 @@
         <v>2585.929644942496</v>
       </c>
       <c r="S12" t="n">
-        <v>2456.491758435976</v>
+        <v>2456.491758435975</v>
       </c>
       <c r="T12" t="n">
-        <v>2263.848758113832</v>
+        <v>2263.848758113831</v>
       </c>
       <c r="U12" t="n">
         <v>2035.780911248247</v>
@@ -5159,13 +5159,13 @@
         <v>1800.628803016504</v>
       </c>
       <c r="W12" t="n">
-        <v>1546.391446288303</v>
+        <v>1546.391446288302</v>
       </c>
       <c r="X12" t="n">
-        <v>1338.53994608277</v>
+        <v>1338.539946082769</v>
       </c>
       <c r="Y12" t="n">
-        <v>1130.779647317816</v>
+        <v>1130.779647317815</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>444.5617333159065</v>
+        <v>665.3543124594362</v>
       </c>
       <c r="C13" t="n">
-        <v>275.6255503879996</v>
+        <v>496.4181295315293</v>
       </c>
       <c r="D13" t="n">
-        <v>234.422519746733</v>
+        <v>496.4181295315293</v>
       </c>
       <c r="E13" t="n">
-        <v>234.422519746733</v>
+        <v>380.6397065288752</v>
       </c>
       <c r="F13" t="n">
-        <v>87.53257224882266</v>
+        <v>233.7497590309649</v>
       </c>
       <c r="G13" t="n">
-        <v>87.53257224882266</v>
+        <v>233.7497590309649</v>
       </c>
       <c r="H13" t="n">
         <v>87.53257224882266</v>
@@ -5202,13 +5202,13 @@
         <v>132.6552046957582</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6423876446346</v>
+        <v>336.6423876446345</v>
       </c>
       <c r="L13" t="n">
         <v>653.2021860931306</v>
       </c>
       <c r="M13" t="n">
-        <v>997.3592316926797</v>
+        <v>997.3592316926796</v>
       </c>
       <c r="N13" t="n">
         <v>1338.767608398544</v>
@@ -5232,19 +5232,19 @@
         <v>1726.548388474658</v>
       </c>
       <c r="U13" t="n">
-        <v>1437.445521600302</v>
+        <v>1437.445521600301</v>
       </c>
       <c r="V13" t="n">
-        <v>1182.761033394415</v>
+        <v>1182.761033394414</v>
       </c>
       <c r="W13" t="n">
-        <v>893.343863357454</v>
+        <v>893.3438633574535</v>
       </c>
       <c r="X13" t="n">
-        <v>665.3543124594366</v>
+        <v>665.3543124594362</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.5617333159065</v>
+        <v>665.3543124594362</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1972.793246711588</v>
+        <v>2289.061662800271</v>
       </c>
       <c r="C14" t="n">
-        <v>1603.830729771176</v>
+        <v>1920.099145859859</v>
       </c>
       <c r="D14" t="n">
-        <v>1596.962780182911</v>
+        <v>1561.833447253109</v>
       </c>
       <c r="E14" t="n">
-        <v>1211.174527584667</v>
+        <v>1176.045194654864</v>
       </c>
       <c r="F14" t="n">
-        <v>800.188622795059</v>
+        <v>765.0592898652569</v>
       </c>
       <c r="G14" t="n">
         <v>385.1161726400554</v>
@@ -5284,19 +5284,19 @@
         <v>1098.540684363501</v>
       </c>
       <c r="L14" t="n">
-        <v>1549.574897611909</v>
+        <v>1658.294169993562</v>
       </c>
       <c r="M14" t="n">
-        <v>2083.106802283834</v>
+        <v>2191.826074665486</v>
       </c>
       <c r="N14" t="n">
-        <v>2629.885619342616</v>
+        <v>3171.578346892133</v>
       </c>
       <c r="O14" t="n">
-        <v>3509.850269672071</v>
+        <v>3674.55081777147</v>
       </c>
       <c r="P14" t="n">
-        <v>3904.624636029249</v>
+        <v>4069.325184128648</v>
       </c>
       <c r="Q14" t="n">
         <v>4317.611545884331</v>
@@ -5305,25 +5305,25 @@
         <v>4376.628612441133</v>
       </c>
       <c r="S14" t="n">
-        <v>4266.337943968228</v>
+        <v>4376.628612441133</v>
       </c>
       <c r="T14" t="n">
-        <v>4060.36019635245</v>
+        <v>4376.628612441133</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.829719626286</v>
+        <v>4123.098135714969</v>
       </c>
       <c r="V14" t="n">
-        <v>3475.766832282715</v>
+        <v>3792.035248371399</v>
       </c>
       <c r="W14" t="n">
-        <v>3122.998177012601</v>
+        <v>3439.266593101284</v>
       </c>
       <c r="X14" t="n">
-        <v>2749.532418751521</v>
+        <v>3065.800834840205</v>
       </c>
       <c r="Y14" t="n">
-        <v>2359.393086775709</v>
+        <v>2675.661502864393</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.564310297748</v>
+        <v>962.5643102977474</v>
       </c>
       <c r="C15" t="n">
-        <v>788.111281016621</v>
+        <v>788.1112810166204</v>
       </c>
       <c r="D15" t="n">
-        <v>639.1768713553697</v>
+        <v>639.1768713553693</v>
       </c>
       <c r="E15" t="n">
-        <v>479.9394163499142</v>
+        <v>479.9394163499137</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4048583767991</v>
+        <v>333.4048583767988</v>
       </c>
       <c r="G15" t="n">
-        <v>197.0417582094172</v>
+        <v>197.0417582094173</v>
       </c>
       <c r="H15" t="n">
-        <v>106.5398638472847</v>
+        <v>106.5398638472848</v>
       </c>
       <c r="I15" t="n">
         <v>87.53257224882266</v>
       </c>
       <c r="J15" t="n">
-        <v>181.20984173944</v>
+        <v>181.2098417394398</v>
       </c>
       <c r="K15" t="n">
-        <v>419.4740407197871</v>
+        <v>419.4740407197867</v>
       </c>
       <c r="L15" t="n">
-        <v>786.1722010324524</v>
+        <v>786.1722010324523</v>
       </c>
       <c r="M15" t="n">
         <v>1233.448526254768</v>
@@ -5384,10 +5384,10 @@
         <v>2585.929644942496</v>
       </c>
       <c r="S15" t="n">
-        <v>2456.491758435976</v>
+        <v>2456.491758435975</v>
       </c>
       <c r="T15" t="n">
-        <v>2263.848758113832</v>
+        <v>2263.848758113831</v>
       </c>
       <c r="U15" t="n">
         <v>2035.780911248247</v>
@@ -5396,13 +5396,13 @@
         <v>1800.628803016504</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.391446288303</v>
+        <v>1546.391446288302</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.53994608277</v>
+        <v>1338.539946082769</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130.779647317816</v>
+        <v>1130.779647317815</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.53257224882266</v>
+        <v>532.4522527414618</v>
       </c>
       <c r="C16" t="n">
-        <v>87.53257224882266</v>
+        <v>532.4522527414618</v>
       </c>
       <c r="D16" t="n">
-        <v>87.53257224882266</v>
+        <v>382.3356133291261</v>
       </c>
       <c r="E16" t="n">
-        <v>87.53257224882266</v>
+        <v>234.422519746733</v>
       </c>
       <c r="F16" t="n">
         <v>87.53257224882266</v>
@@ -5469,19 +5469,19 @@
         <v>1445.032047059012</v>
       </c>
       <c r="U16" t="n">
-        <v>1155.929180184656</v>
+        <v>1445.032047059012</v>
       </c>
       <c r="V16" t="n">
-        <v>901.2446919787689</v>
+        <v>1445.032047059012</v>
       </c>
       <c r="W16" t="n">
-        <v>611.8275219418083</v>
+        <v>1162.882847613249</v>
       </c>
       <c r="X16" t="n">
-        <v>383.837971043791</v>
+        <v>934.8932967152317</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.0453919002609</v>
+        <v>714.1007175717016</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1971.087962216427</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
-        <v>2504.619866888352</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>3051.398683947134</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.371154826471</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4267.726242273417</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5542,25 +5542,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5597,10 +5597,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>432.2000540015823</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1606.732307116217</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1606.732307116217</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1352.04781891033</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1062.630648873369</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>834.6410979753522</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.848518831822</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O20" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5785,13 +5785,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6177,7 +6177,7 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
         <v>1270.093287563029</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1070.832524924162</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.86673817257</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844495</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256235</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,28 +6305,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>630.8674397712578</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C28" t="n">
-        <v>630.8674397712578</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>630.8674397712578</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>482.9543461888646</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
-        <v>336.0643986909542</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3615620656732</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>168.3615620656732</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1322.725653781988</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W28" t="n">
-        <v>1033.308483745028</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="X28" t="n">
-        <v>1033.308483745028</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="Y28" t="n">
-        <v>812.5159046014975</v>
+        <v>1133.374880360351</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6472,13 +6472,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
         <v>4470.748294107237</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,28 +6542,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>623.6704680167705</v>
+        <v>802.8431224204016</v>
       </c>
       <c r="C31" t="n">
-        <v>454.7342850888637</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="D31" t="n">
-        <v>304.6176456765279</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E31" t="n">
-        <v>304.6176456765279</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F31" t="n">
-        <v>304.6176456765279</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
         <v>192.8867116300491</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>1541.04242249891</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.725653781988</v>
+        <v>1541.04242249891</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.308483745028</v>
+        <v>1251.625252461949</v>
       </c>
       <c r="X31" t="n">
-        <v>805.3189328470103</v>
+        <v>1023.635701563932</v>
       </c>
       <c r="Y31" t="n">
-        <v>805.3189328470103</v>
+        <v>802.8431224204016</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6709,13 +6709,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,25 +6779,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1023.336921276364</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C34" t="n">
-        <v>854.4007383484569</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1943.184686185112</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>1653.767516148151</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="X34" t="n">
-        <v>1425.777965250134</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.985386106604</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924162</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.86673817257</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844495</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,22 +7016,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902953</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>301.0224619425389</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C37" t="n">
-        <v>132.086279014632</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>1618.431689638922</v>
       </c>
       <c r="U37" t="n">
-        <v>1475.554715057174</v>
+        <v>1329.328822764566</v>
       </c>
       <c r="V37" t="n">
-        <v>1220.870226851287</v>
+        <v>1329.328822764566</v>
       </c>
       <c r="W37" t="n">
-        <v>931.4530568143261</v>
+        <v>1039.911652727605</v>
       </c>
       <c r="X37" t="n">
-        <v>703.4635059163088</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y37" t="n">
-        <v>482.6709267727787</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="38">
@@ -7183,16 +7183,16 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2007.922195883854</v>
+        <v>2325.561901981702</v>
       </c>
       <c r="C41" t="n">
-        <v>1638.959678943442</v>
+        <v>1956.59938504129</v>
       </c>
       <c r="D41" t="n">
-        <v>1638.959678943442</v>
+        <v>1598.33368643454</v>
       </c>
       <c r="E41" t="n">
-        <v>1253.171426345198</v>
+        <v>1212.545433836295</v>
       </c>
       <c r="F41" t="n">
-        <v>842.1855215555902</v>
+        <v>801.5595290466879</v>
       </c>
       <c r="G41" t="n">
         <v>427.1130714005867</v>
@@ -7423,7 +7423,7 @@
         <v>2008.281797222974</v>
       </c>
       <c r="N41" t="n">
-        <v>2794.586167442015</v>
+        <v>2988.034069449621</v>
       </c>
       <c r="O41" t="n">
         <v>3674.55081777147</v>
@@ -7438,25 +7438,25 @@
         <v>4376.628612441133</v>
       </c>
       <c r="S41" t="n">
-        <v>4301.466893140494</v>
+        <v>4266.337943968228</v>
       </c>
       <c r="T41" t="n">
-        <v>4095.489145524716</v>
+        <v>4060.36019635245</v>
       </c>
       <c r="U41" t="n">
-        <v>3841.958668798552</v>
+        <v>3806.829719626286</v>
       </c>
       <c r="V41" t="n">
-        <v>3510.895781454981</v>
+        <v>3475.766832282715</v>
       </c>
       <c r="W41" t="n">
-        <v>3158.127126184867</v>
+        <v>3475.766832282715</v>
       </c>
       <c r="X41" t="n">
-        <v>2784.661367923787</v>
+        <v>3102.301074021635</v>
       </c>
       <c r="Y41" t="n">
-        <v>2394.522035947975</v>
+        <v>2712.161742045824</v>
       </c>
     </row>
     <row r="42">
@@ -7511,7 +7511,7 @@
         <v>2428.432440703381</v>
       </c>
       <c r="Q42" t="n">
-        <v>2586.073998349981</v>
+        <v>2586.07399834998</v>
       </c>
       <c r="R42" t="n">
         <v>2585.929644942496</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>817.8310951781432</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="C43" t="n">
-        <v>648.8949122502363</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="D43" t="n">
-        <v>498.7782728379005</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="E43" t="n">
-        <v>498.7782728379005</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="F43" t="n">
-        <v>498.7782728379005</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="G43" t="n">
-        <v>331.0754362126195</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="H43" t="n">
-        <v>184.8582494304773</v>
+        <v>87.53257224882266</v>
       </c>
       <c r="I43" t="n">
         <v>87.53257224882266</v>
@@ -7593,28 +7593,28 @@
         <v>1948.315003905132</v>
       </c>
       <c r="R43" t="n">
-        <v>1858.48454666266</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="S43" t="n">
-        <v>1666.798662489486</v>
+        <v>1756.629119731958</v>
       </c>
       <c r="T43" t="n">
-        <v>1521.297713425578</v>
+        <v>1534.862504301484</v>
       </c>
       <c r="U43" t="n">
-        <v>1521.297713425578</v>
+        <v>1262.064825363457</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.613225219691</v>
+        <v>1007.38033715757</v>
       </c>
       <c r="W43" t="n">
-        <v>1266.613225219691</v>
+        <v>717.9631671206098</v>
       </c>
       <c r="X43" t="n">
-        <v>1038.623674321673</v>
+        <v>489.9736162225925</v>
       </c>
       <c r="Y43" t="n">
-        <v>817.8310951781432</v>
+        <v>269.1810370790624</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1972.793246711588</v>
+        <v>2366.187894490604</v>
       </c>
       <c r="C44" t="n">
-        <v>1603.830729771176</v>
+        <v>1997.225377550192</v>
       </c>
       <c r="D44" t="n">
-        <v>1245.565031164426</v>
+        <v>1638.959678943442</v>
       </c>
       <c r="E44" t="n">
-        <v>859.7767785661813</v>
+        <v>1253.171426345198</v>
       </c>
       <c r="F44" t="n">
         <v>842.1855215555902</v>
@@ -7654,16 +7654,16 @@
         <v>610.2310768976946</v>
       </c>
       <c r="L44" t="n">
-        <v>1213.275771835658</v>
+        <v>1061.265290146103</v>
       </c>
       <c r="M44" t="n">
-        <v>2191.826074665486</v>
+        <v>2039.815592975932</v>
       </c>
       <c r="N44" t="n">
-        <v>3171.578346892133</v>
+        <v>3019.567865202579</v>
       </c>
       <c r="O44" t="n">
-        <v>3674.55081777147</v>
+        <v>3522.540336081915</v>
       </c>
       <c r="P44" t="n">
         <v>4069.325184128648</v>
@@ -7675,25 +7675,25 @@
         <v>4376.628612441133</v>
       </c>
       <c r="S44" t="n">
-        <v>4266.337943968228</v>
+        <v>4376.628612441133</v>
       </c>
       <c r="T44" t="n">
-        <v>4060.36019635245</v>
+        <v>4170.650864825355</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.829719626286</v>
+        <v>4170.650864825355</v>
       </c>
       <c r="V44" t="n">
-        <v>3475.766832282715</v>
+        <v>3839.587977481784</v>
       </c>
       <c r="W44" t="n">
-        <v>3122.998177012601</v>
+        <v>3486.81932221167</v>
       </c>
       <c r="X44" t="n">
-        <v>2749.532418751521</v>
+        <v>3113.35356395059</v>
       </c>
       <c r="Y44" t="n">
-        <v>2359.393086775709</v>
+        <v>2752.787734554726</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>256.4687551767296</v>
+        <v>869.0912722946498</v>
       </c>
       <c r="C46" t="n">
-        <v>87.53257224882266</v>
+        <v>700.1550893667429</v>
       </c>
       <c r="D46" t="n">
-        <v>87.53257224882266</v>
+        <v>550.0384499544072</v>
       </c>
       <c r="E46" t="n">
-        <v>87.53257224882266</v>
+        <v>402.125356372014</v>
       </c>
       <c r="F46" t="n">
-        <v>87.53257224882266</v>
+        <v>255.2354088741037</v>
       </c>
       <c r="G46" t="n">
         <v>87.53257224882266</v>
@@ -7842,16 +7842,16 @@
         <v>1245.759637427128</v>
       </c>
       <c r="V46" t="n">
-        <v>1176.316520085477</v>
+        <v>991.0751492212411</v>
       </c>
       <c r="W46" t="n">
-        <v>886.8993500485168</v>
+        <v>991.0751492212411</v>
       </c>
       <c r="X46" t="n">
-        <v>658.9097991504995</v>
+        <v>991.0751492212411</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.1172200069693</v>
+        <v>869.0912722946498</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>56.77916668115728</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>153.5459411005608</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8932,22 +8932,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>109.817446850154</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.3641899993928</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.0727796301213</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>315.1679217109336</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>226.768859619312</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,19 +10831,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O38" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>241.9450031921806</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>185.3982600429417</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>153.54594110056</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>153.5459411005602</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>389.4607013012263</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>185.5427311616065</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8244726833584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>31.81332387394161</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>347.8837715283004</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>34.77803960050397</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>7.195290885285317</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>152.1350798790565</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.20292720900949</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>24.27989806873209</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>188.3077189484579</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.41218355301419</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>183.544906982094</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>211.5072400962442</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>112.4554808976371</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>74.78531590648771</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>40.21973258381331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.77765968054358</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>75.50300970289948</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>389.4607013012263</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>29.27776755414862</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>183.3889571555939</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.82061519476943</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880000.6362864521</v>
+        <v>880000.6362864519</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880000.6362864518</v>
+        <v>880000.6362864521</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189282</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189282</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921202.945918928</v>
+        <v>921202.9459189281</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>880000.6362864521</v>
+        <v>880000.6362864518</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>476976.5637189927</v>
+        <v>476976.5637189929</v>
       </c>
       <c r="F2" t="n">
-        <v>476976.5637189928</v>
+        <v>476976.5637189929</v>
       </c>
       <c r="G2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="H2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.233608729</v>
       </c>
       <c r="I2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.233608729</v>
       </c>
       <c r="J2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="K2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="N2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="O2" t="n">
-        <v>476976.5637189928</v>
+        <v>476976.5637189929</v>
       </c>
       <c r="P2" t="n">
         <v>476976.5637189929</v>
@@ -26377,7 +26377,7 @@
         <v>697413.3866606099</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>27506.01327462035</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>22188.28974321217</v>
+        <v>22188.28974321218</v>
       </c>
       <c r="F4" t="n">
         <v>22188.28974321216</v>
@@ -26435,28 +26435,28 @@
         <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="I4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="I4" t="n">
-        <v>28561.83935289575</v>
-      </c>
       <c r="J4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="N4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>22188.28974321215</v>
+        <v>22188.28974321216</v>
       </c>
       <c r="P4" t="n">
         <v>22188.28974321216</v>
@@ -26493,16 +26493,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369598.2665758103</v>
+        <v>-369598.2665758105</v>
       </c>
       <c r="C6" t="n">
         <v>220369.612638734</v>
       </c>
       <c r="D6" t="n">
-        <v>220369.6126387343</v>
+        <v>220369.6126387345</v>
       </c>
       <c r="E6" t="n">
-        <v>-334353.9813647158</v>
+        <v>-333051.697836653</v>
       </c>
       <c r="F6" t="n">
-        <v>363059.4052958941</v>
+        <v>364361.6888239568</v>
       </c>
       <c r="G6" t="n">
-        <v>343228.907825241</v>
+        <v>343833.6672372734</v>
       </c>
       <c r="H6" t="n">
-        <v>370734.9210998615</v>
+        <v>371339.6805118938</v>
       </c>
       <c r="I6" t="n">
-        <v>370734.9210998614</v>
+        <v>371339.6805118938</v>
       </c>
       <c r="J6" t="n">
-        <v>194311.7019072686</v>
+        <v>194916.4613193008</v>
       </c>
       <c r="K6" t="n">
-        <v>370734.9210998616</v>
+        <v>371339.6805118936</v>
       </c>
       <c r="L6" t="n">
-        <v>370734.9210998616</v>
+        <v>371339.6805118937</v>
       </c>
       <c r="M6" t="n">
-        <v>266101.6674356927</v>
+        <v>266706.4268477249</v>
       </c>
       <c r="N6" t="n">
-        <v>370734.9210998616</v>
+        <v>371339.6805118936</v>
       </c>
       <c r="O6" t="n">
-        <v>363059.4052958941</v>
+        <v>364361.6888239569</v>
       </c>
       <c r="P6" t="n">
-        <v>363059.4052958942</v>
+        <v>364361.6888239569</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.10841501723559</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>66.32399584622036</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>122.4562906140752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>321.7931707131945</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>191.0869681492219</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>18.41346922808852</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.71246049576317</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.3931621165038</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>85.9894884579729</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>247.5661676498698</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>609.1360554928928</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>565.4075612424862</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.1584948031123</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>455.8670844338408</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303053</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>682.3589740116439</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,19 +37551,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O38" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,10 +37791,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>794.2468386050921</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>693.4512609311608</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>609.1360554928922</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38034,7 +38034,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>552.3079273199321</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
